--- a/02-reportes-scripts/02-psicometrico/01-cfa-pca/01-cfa-pca-inspeccion.xlsx
+++ b/02-reportes-scripts/02-psicometrico/01-cfa-pca/01-cfa-pca-inspeccion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
   <si>
     <t xml:space="preserve">cuestionario</t>
   </si>
@@ -65,6 +65,132 @@
     <t xml:space="preserve">Clima escolar: Interacción entre docentes</t>
   </si>
   <si>
+    <t xml:space="preserve">DIR2SGEN_CRAPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creencias sobre la naturaleza de la enseñanza y el aprendizaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIR2SGEN_BIENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Bienestar General WHO-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM2022_2SdocenteCOM_EBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SGEN_BURN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agotamiento emocional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SGEN_AUTDIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoeficacia para el manejo de la disciplina en el aula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SLEC_ACTREF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividades asociadas a la capacidad de Reflexión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SLEC_CLCOAPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creencias sobre la lectura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SGEN_PERTEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percepciones sobre los resultados del uso de la tecnología en el aprendizaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM2022_2SdocenteCYT_EBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SCYT_CREEAPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creencias sobre el aprendizaje de la Ciencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SCYT_CREEEPISTEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creencias epistemológicas sobre la ciencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SCYT_AUTCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoeficacia docente para la enseñanza de CyT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SCYT_AUTACTINV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoeficacia docente para el desarrollo de actividades de investigación científica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SCYT_AUTCOMPCRIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoeficacia docente para el desarrollo de la competencia de posición crítica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM2022_2Sestudiante_EBRD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EST2SGEN_SENPER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentido de pertenencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM2022_2Sestudiante_EBRD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EST2SLEC_ESTLEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrategias de lectura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EST2SLEC_ACTREFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actvidades de la capacidad de reflexión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EST2SMAT_DISRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disrupción en clase - Matemática</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EST2SMAT_ACTCOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activación cognitiva - Matemática</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EST2SMAT_EVFORM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prácticas de evaluación formativa - Matemática</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EST2SMAT_AUTOEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoeficacia en Matemática</t>
+  </si>
+  <si>
     <t xml:space="preserve">cod_preg</t>
   </si>
   <si>
@@ -77,82 +203,880 @@
     <t xml:space="preserve">Est.sugerido</t>
   </si>
   <si>
+    <t xml:space="preserve">Escala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabajar en conjunto para proyectos específicos (concursos de conocimiento, otros).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercambiar entre ellos materiales de enseñanza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involucrarse en debates internos sobre el desarrollo de aprendizajes de grupos específicos de estudiantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debatir sobre las prácticas de evaluación sumativa y formativa que se realizan en la escuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercambiar ideas sobre el manejo de conductas inadecuadas de los estudiantes en el aula.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los docentes dialogan abiertamente entre sí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los docentes están dispuestos a trabajar en equipo sin ninguna distinción.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los docentes tienen problemas para trabajar en equipo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los docentes comparten un vínculo de identidad con la escuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los docentes interactúan con cordialidad y respeto dentro y fuera de la escuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La relación entre los docentes se caracteriza por la tensión y el conflicto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los docentes colaboran entre sí para alcanzar los objetivos trazados por la institución educativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIR2SGEN_CRAPRTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los estudiantes alcanzarán los aprendizajes esperados si los docentes mantienen el aula tranquila.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIR2SGEN_CRAPRCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es más importante que los docentes se enfoquen en los procesos de pensamiento y razonamiento que en el contenido curricular específico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los buenos docentes demuestran la forma correcta en que se resuelve un problema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La enseñanza debe basarse en tareas con respuestas claras y correctas, en torno a ideas que la mayoría de los estudiantes puedan comprender rápidamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El grado de aprendizaje de los estudiantes depende de los conocimientos previos que tengan, por eso los docentes necesitan enseñar mayormente con hechos, procedimientos, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los docentes deben permitir que los estudiantes piensen en soluciones prácticas a sus trabajos antes de mostrarles cómo hacerlo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los docentes deben promover que los estudiantes indaguen por su cuenta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los estudiantes aprenden mejor con docentes que les alientan a buscar soluciones por su cuenta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me he sentido alegre y de buen humor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me he sentido tranquilo y relajado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me he sentido activo y con energía.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me he despertado fresco y descansado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi vida diaria ha estado llena de cosas que me interesan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p05_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me siento emocionalmente agotado por mi trabajo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p05_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me siento cansado al final de la jornada de trabajo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p05_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando me levanto por la mañana y me enfrento a otra jornada de trabajo, me siento fatigado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p05_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siento que trabajar todo el día con estudiantes supone un gran esfuerzo y me cansa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p05_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siento que mi trabajo me está desgastando.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p05_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me siento frustrado en mi trabajo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p05_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creo que trabajo demasiado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p06_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lograr que los estudiantes respeten las normas de la clase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p06_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manejar las interrupciones de los estudiantes durante las clases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p06_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evitar que algún estudiante distraiga al resto durante las clases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p06_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acordar con los estudiantes cómo se espera que se comporten en clase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p06_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Establecer rutinas en clase para que las actividades planeadas se realicen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los oriento para que piensen en ejemplos o evoquen algún recuerdo a partir de lo que leen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fomento que dialoguen o comenten sobre lo que quiso comunicar el autor del texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promuevo que debatan sobre algún aspecto controversial encontrado en el texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los motivo a buscar información que les permita ampliar lo leído y compararlo con otros textos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fomento que dialoguen sobre los pasajes del texto que hayan generado mayores dificultades, a fin de aclararlos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les propongo preguntas para formular juicios críticos sobre el contenido o la forma del texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SLEC_CLCOTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los buenos lectores nacen con ese talento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mejor manera de mejorar en lectura es leyendo bastante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algunas personas comprenden lo que leen sin necesidad de esforzarse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los buenos lectores se han esforzado mucho para desarrollar sus habilidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algunas personas tienen un don especial para la lectura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deseo, dedicación y tiempo suficiente es lo que se necesita para convertirse en un buen lector.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una persona puede leer mejor con la ayuda de un buen profesor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algunas personas nunca serán buenas lectoras a pesar de lo mucho que lo intenten.</t>
+  </si>
+  <si>
     <t xml:space="preserve">p13_01</t>
   </si>
   <si>
-    <t xml:space="preserve">Observar las clases de otros docentes y darles retroalimentación sobre su forma de enseñanza.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trabajar en conjunto para proyectos específicos (concursos de conocimiento, otros).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercambiar entre ellos materiales de enseñanza.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Involucrarse en debates internos sobre el desarrollo de aprendizajes de grupos específicos de estudiantes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debatir sobre las prácticas de evaluación sumativa y formativa que se realizan en la escuela.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercambiar ideas sobre el manejo de conductas inadecuadas de los estudiantes en el aula.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los docentes dialogan abiertamente entre sí.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los docentes están dispuestos a trabajar en equipo sin ninguna distinción.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los docentes tienen problemas para trabajar en equipo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los docentes comparten un vínculo de identidad con la escuela.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los docentes interactúan con cordialidad y respeto dentro y fuera de la escuela.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La relación entre los docentes se caracteriza por la tensión y el conflicto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los docentes colaboran entre sí para alcanzar los objetivos trazados por la institución educativa.</t>
+    <t xml:space="preserve">Ayuda a los estudiantes a desarrollar un mayor interés en el aprendizaje.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SGEN_PERTECPOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da como resultado una expresión escrita más pobre entre los estudiantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SGEN_PERTECNEG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite a los estudiantes colaborar de manera más efectiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promueve que los estudiantes copien material de Internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anima a los estudiantes a comunicarse más con sus compañeros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayuda a mejorar la capacidad de los estudiantes para leer y escribir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distrae a los estudiantes en sus procesos de aprendizaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite a los estudiantes ser más creativos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite a los estudiantes expresar mejor sus ideas y pensamientos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite a los estudiantes acceder a mejores fuentes de información.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impide la formación de conceptos adecuados por parte de los estudiantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p09_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p09_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p09_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p09_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acordar con los estudiantes cómo se espera que se comporten en clase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p09_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprender ciencia significa memorizar conceptos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprender ciencia significa recordar lo que el docente expone en clase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprender ciencia significa sacarse buenas notas en los exámenes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprender ciencia es realizar cálculos matemáticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprender ciencia significa saber cómo usar las fórmulas científicas para resolver un problema científico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprender ciencia significa estudiar de memoria los pasos del método científico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las teorías científicas basadas en experimentaciones u observaciones rigurosas pueden cambiar a través del tiempo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El conocimiento científico es inexacto, siempre hay cierta incertidumbre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo que afirman los científicos siempre es verdad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los libros contienen ideas científicas que pueden cambiar con el tiempo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos los problemas científicos se resuelven de una sola manera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El conocimiento científico siempre es verdadero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A veces los científicos cambian de opinión sobre lo que es verdad en ciencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo más importante de hacer ciencia es llegar a la respuesta correcta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantear actividades relacionadas con el movimiento rectilíneo uniforme y movimiento rectilíneo uniformemente variado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantear ejemplos de temperatura y calor para los estudiantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicar a profundidad la clasificación de los seres vivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicar las conversiones entre múltiplos y submúltiplos de las unidades del Sistema Internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicar a profundidad los temas sobre el origen y evolución del universo y sus teorías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicar contenidos sobre las células, su apariencia y estructura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enseñar los temas de calentamiento global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enseñar los temas de ciclos biogeoquímicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enseñar sobre las teorías atómicas y la Tabla Periódica de los elementos químicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar actividades que fomenten el sustento de posiciones frente a situaciones sociocientíficas (controversias sociales que tienen su base en nociones científicas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar actividades que desarrollen el pensamiento crítico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicar la selección natural de los seres vivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observar un fenómeno natural y describir lo que ven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observar la demostración de un principio científico a través de un experimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseñar y planificar experimentos o indagaciones científicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar experimentos o indagaciones científicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentar resultados sobre experimentos o investigaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interpretar los resultados de experimentos o investigaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaborar conclusiones usando evidencia de experimentos o investigaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memorizar hechos y principios científicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar fórmulas científicas y leyes para resolver problemas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hacer trabajo de campo (por ejemplo, recolectar información o hacer observaciones fuera del aula)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluar los procedimientos experimentales que realizan en clase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proponer nuevas indagaciones a partir de los resultados o conclusiones de sus experimentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguir los pasos de una guía de laboratorio para realizar sus experimentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar y evaluar información científica para tomar decisiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollar estudios de caso para que los estudiantes emitan un juicio crítico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollar actividades para que los estudiantes aprendan a formular argumentos científicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantear actividades para que los estudiantes desarrollen habilidades de argumentación científica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promover que los estudiantes realicen afirmaciones o conclusiones sustentadas en evidencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollar tareas colaborativas de construcción de argumentos científicos entre los estudiantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar que los estudiantes emitan una opinión sustentada de un tema científico usando bibliografía actualizada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orientar a los estudiantes a formular opiniones sustentadas frente a temas científicos controversiales (por ejemplo: la clonación, modificación genética, efectos de la inteligencia artificial, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acompañar la metacognición de los estudiantes sobre sus formas de aprender en ciencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proponer situaciones que requieran que los estudiantes busquen y evalúen información científica para tomar decisiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferiría faltar al colegio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi colegio es un lugar donde me siento solo(a).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferiría estudiar en otro colegio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el colegio, me siento fuera de lugar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi colegio es un lugar donde me siento como un extraño.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando leo, tengo claro cuál es mi propósito de lectura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las cosas que conozco me ayudan a entender lo que leo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antes de leer un texto, lo reviso rápidamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trato de imaginar lo que voy leyendo para recordarlo después.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando leo una información trato de opinar o tomar una postura sobre esta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p06_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando encuentro información que me resulta contradictoria o poco clara, vuelvo a leer el texto para comprobar que entendí bien.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p06_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando un texto se hace difícil, lo vuelvo a leer para mejorar mi comprensión.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p06_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intento deducir el significado de palabras o frases desconocidas utilizando el propio texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p06_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando encuentro una palabra desconocida, consulto un diccionario porque no es posible deducir a partir del propio texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p07_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opinar sobre las ideas o la postura del autor del texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p07_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dar tu opinión personal sobre el texto (por ejemplo: ¿Te gustó? Y si fue así, ¿por qué?).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p07_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicar el aporte de los gráficos y/o ilustraciones del texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p07_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opinar sobre el uso de los recursos formales del texto (por ejemplo, la negrita, las mayúsculas o las comillas).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p07_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opinar si es que el texto podría ser controversial para los lectores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p07_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparar el contenido del texto con tu propia experiencia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p07_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparar el texto con otros libros o textos con un tema similar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p07_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparar textos y determinar cuál tiene información más confiable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p08_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante la clase hay desorden en el salón.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p08_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El profesor tiene que esperar mucho tiempo para que los estudiantes se callen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p08_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algunos estudiantes hacen tanto desorden que se hace difícil aprender.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p08_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando un estudiante participa en clase, otros interrumpen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p08_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los estudiantes se distraen en la clase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos deja tareas que requieren más análisis en lugar de solo aplicar fórmulas o resolver ecuaciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos pide explicar cómo hemos resuelto un problema o ejercicio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos pide que reflexionemos sobre cómo se relacionan los temas nuevos con los anteriores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos pide que expliquemos nuestras respuestas con detalle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos presenta problemas que pueden ser resueltos de muchas maneras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p09_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al iniciar la clase nos explica lo que vamos a hacer y aprender.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p09_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversa con nosotros sobre la importancia de lo que vamos a aprender.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p09_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos aconseja sobre cómo podemos lograr los aprendizajes que nos propone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p09_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usa ejemplos para mostrarnos cómo deberían ser nuestros trabajos o tareas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p09_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos dice que debemos practicar más para hacerlo mejor la próxima vez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p09_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos explica cómo podemos mejorar cuando cometemos un error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p09_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos devuelve nuestros trabajos o exámenes explicándonos dónde están nuestros errores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p09_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos da recomendaciones cuando estamos haciendo en una tarea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p09_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos permite mejorar nuestro trabajo después de recibir sus opiniones o recomendaciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p09_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos pide que analicemos nuestras respuestas para entender por qué hemos fallado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p09_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos pide que analicemos nuestros errores para no volver a cometerlos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p10_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puedo entender cualquier tema que se relacione con la matemática.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p10_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando nos enseñan un tema nuevo de matemática, lo aprendo sin mayor dificultad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p10_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creo que puedo comprender un tema difícil en matemática.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p10_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puedo ayudar a mis compañeros con las tareas de matemática que ellos no entienden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p10_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puedo hacer sin ayuda una tarea de matemática.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p10_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confío en que puedo aprobar matemática sin mayor problema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p10_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soy bueno o buena resolviendo problemas matemáticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p10_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me siento más capaz mientras voy aprendiendo más cosas en matemática.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p10_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siento que soy bueno o buena en matemática.</t>
   </si>
   <si>
     <t xml:space="preserve">pca_inicial</t>
@@ -170,64 +1094,97 @@
     <t xml:space="preserve">50,14</t>
   </si>
   <si>
+    <t xml:space="preserve">EST2SGEN_ENTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disposición del entorno de aprendizaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56,56</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cargas.inicial</t>
   </si>
   <si>
     <t xml:space="preserve">Cargas.sugerido</t>
   </si>
   <si>
-    <t xml:space="preserve">p15_01</t>
-  </si>
-  <si>
     <t xml:space="preserve">Docentes de la institución educativa que dirige</t>
   </si>
   <si>
     <t xml:space="preserve">0,602</t>
   </si>
   <si>
-    <t xml:space="preserve">p15_02</t>
-  </si>
-  <si>
     <t xml:space="preserve">Padres de familia</t>
   </si>
   <si>
     <t xml:space="preserve">0,556</t>
   </si>
   <si>
-    <t xml:space="preserve">p15_03</t>
-  </si>
-  <si>
     <t xml:space="preserve">Autoridades educativas de la UGEL o de la DRE</t>
   </si>
   <si>
     <t xml:space="preserve">0,785</t>
   </si>
   <si>
-    <t xml:space="preserve">p15_04</t>
-  </si>
-  <si>
     <t xml:space="preserve">Directores de otras instituciones educativas</t>
   </si>
   <si>
     <t xml:space="preserve">0,756</t>
   </si>
   <si>
-    <t xml:space="preserve">p15_05</t>
-  </si>
-  <si>
     <t xml:space="preserve">Organismos no gubernamentales (ONG)</t>
   </si>
   <si>
     <t xml:space="preserve">0,774</t>
   </si>
   <si>
-    <t xml:space="preserve">p15_06</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entidades privadas</t>
   </si>
   <si>
     <t xml:space="preserve">0,742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuve acceso a una computadora, laptop o tablet cuando lo necesité.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuve acceso a un celular o smartphone cuando lo necesité.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuve acceso a Internet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi conexión a Internet fue lo suficientemente buena para mis actividades escolares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuve un lugar tranquilo para estudiar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuve tiempo suficiente para hacer mis actividades escolares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuve los recursos de aprendizaje necesarios en mi casa (libros de texto, cuadernos de trabajo, enciclopedias, etc.).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,727</t>
   </si>
 </sst>
 </file>
@@ -605,16 +1562,16 @@
         <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.988</v>
+        <v>0.99</v>
       </c>
       <c r="E2" t="n">
-        <v>0.98</v>
+        <v>0.981</v>
       </c>
       <c r="F2" t="n">
-        <v>0.067</v>
+        <v>0.058</v>
       </c>
       <c r="G2" t="n">
-        <v>0.105</v>
+        <v>0.122</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -640,29 +1597,625 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.941</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.004</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.801</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.072</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.008</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.975</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.962</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.097</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.179</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="F19" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="n">
         <v>0.987</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.962</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.255</v>
-      </c>
+      <c r="E22" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -689,16 +2242,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2">
@@ -712,15 +2268,16 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="F2" t="n">
-        <v>0.37439699804897</v>
+        <v>0.543362793307437</v>
       </c>
       <c r="G2"/>
+      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -733,15 +2290,18 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="F3" t="n">
-        <v>0.558927224837958</v>
-      </c>
-      <c r="G3"/>
+        <v>0.655575767990498</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.593155053362033</v>
+      </c>
+      <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -754,17 +2314,18 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="F4" t="n">
-        <v>0.648360871262827</v>
+        <v>0.833404913416441</v>
       </c>
       <c r="G4" t="n">
-        <v>0.593155053362033</v>
-      </c>
+        <v>0.834966777850158</v>
+      </c>
+      <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -777,17 +2338,18 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>0.827129591069556</v>
+        <v>0.822712858088211</v>
       </c>
       <c r="G5" t="n">
-        <v>0.834966777850158</v>
-      </c>
+        <v>0.840037060391732</v>
+      </c>
+      <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -800,194 +2362,3715 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F6" t="n">
-        <v>0.822507976453792</v>
+        <v>0.761639444682556</v>
       </c>
       <c r="G6" t="n">
-        <v>0.840037060391732</v>
-      </c>
+        <v>0.771322450036179</v>
+      </c>
+      <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7"/>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.766561136475501</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.771322450036179</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
+      <c r="B8"/>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.851149501860048</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.867013614305696</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B9"/>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.884526261448303</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.909066700893947</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
+      <c r="B10"/>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.521737819814484</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F10"/>
       <c r="G10"/>
+      <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
+      <c r="B11"/>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.83818333374719</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.848185988684998</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
+      <c r="B12"/>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.829038607624814</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F12"/>
       <c r="G12"/>
+      <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
+      <c r="B13"/>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.516560332331111</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F13"/>
       <c r="G13"/>
+      <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.545410545974822</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.532429571495642</v>
+      </c>
+      <c r="H14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.51206990361579</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.507270579749874</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.847196129019483</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.998814144146093</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.595891144147448</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.537055698345489</v>
+      </c>
+      <c r="H17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.407894838474607</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.540457292048533</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.530458952517093</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.906843719664793</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.914883222445022</v>
+      </c>
+      <c r="H20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.891792570397427</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.887552401758429</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.798731083510556</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.79988380819776</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.883390398531842</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.845638465878563</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.748350437865751</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.593344444106054</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.749698564489039</v>
+      </c>
+      <c r="H45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" t="s">
+        <v>155</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.427372183091786</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.414532461210173</v>
+      </c>
+      <c r="H46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" t="s">
+        <v>157</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.401633729011947</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.639465364779957</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.618356675762375</v>
+      </c>
+      <c r="H48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>160</v>
+      </c>
+      <c r="E49" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.746218415481251</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.54174684345048</v>
+      </c>
+      <c r="H49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.76043050599582</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.791879396735162</v>
+      </c>
+      <c r="H50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.335329833874607</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.33942872408643</v>
+      </c>
+      <c r="H51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.436996428594036</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.507226422100432</v>
+      </c>
+      <c r="H52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.625023322328074</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.678841988277182</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.706289165711928</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" t="s">
+        <v>174</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.620384146742315</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" t="s">
+        <v>175</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.603250052992983</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" t="s">
+        <v>176</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.797783789470968</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.741399523732954</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" t="s">
+        <v>179</v>
+      </c>
+      <c r="E60" t="s">
+        <v>180</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.787760942226573</v>
+      </c>
+      <c r="G60"/>
+      <c r="H60" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" t="s">
+        <v>181</v>
+      </c>
+      <c r="E61" t="s">
+        <v>182</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.848274318493264</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.624512264502113</v>
+      </c>
+      <c r="G62"/>
+      <c r="H62" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" t="s">
+        <v>185</v>
+      </c>
+      <c r="E63" t="s">
+        <v>186</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.663751256716165</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" t="s">
+        <v>187</v>
+      </c>
+      <c r="E64" t="s">
+        <v>130</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.7393731061785</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.789878343990254</v>
+      </c>
+      <c r="H64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" t="s">
+        <v>132</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.856038911081515</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.903329089804943</v>
+      </c>
+      <c r="H65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" t="s">
+        <v>189</v>
+      </c>
+      <c r="E66" t="s">
+        <v>134</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.735727541955468</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.710788512866245</v>
+      </c>
+      <c r="H66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" t="s">
+        <v>191</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.78272563505072</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.65558268870857</v>
+      </c>
+      <c r="H67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" t="s">
+        <v>192</v>
+      </c>
+      <c r="E68" t="s">
+        <v>138</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.656654795069906</v>
+      </c>
+      <c r="G68"/>
+      <c r="H68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69" t="s">
+        <v>193</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.657685117263351</v>
+      </c>
+      <c r="G69"/>
+      <c r="H69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" t="s">
+        <v>194</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.733249452358963</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.787225783885552</v>
+      </c>
+      <c r="H70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" t="s">
+        <v>65</v>
+      </c>
+      <c r="E71" t="s">
+        <v>195</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.696443304979045</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.754781197016241</v>
+      </c>
+      <c r="H71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" t="s">
+        <v>196</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.673416565836056</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.577789433190296</v>
+      </c>
+      <c r="H72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" t="s">
+        <v>197</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.620144274384532</v>
+      </c>
+      <c r="G73"/>
+      <c r="H73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" t="s">
+        <v>71</v>
+      </c>
+      <c r="E74" t="s">
+        <v>198</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.685767341229124</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.61558362677593</v>
+      </c>
+      <c r="H74"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E75" t="s">
+        <v>199</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.644586236194085</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.670416576195595</v>
+      </c>
+      <c r="H75"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>200</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.440484757828776</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.476580742671797</v>
+      </c>
+      <c r="H76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" t="s">
+        <v>201</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.397073617243651</v>
+      </c>
+      <c r="G77"/>
+      <c r="H77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" t="s">
+        <v>79</v>
+      </c>
+      <c r="E78" t="s">
+        <v>202</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.631239442867681</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.736431331781786</v>
+      </c>
+      <c r="H78"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" t="s">
+        <v>203</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.317880885571516</v>
+      </c>
+      <c r="G79"/>
+      <c r="H79"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D80" t="s">
+        <v>83</v>
+      </c>
+      <c r="E80" t="s">
+        <v>204</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.310529958098456</v>
+      </c>
+      <c r="G80"/>
+      <c r="H80"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81" t="s">
+        <v>205</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.518707945691993</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.549276169422687</v>
+      </c>
+      <c r="H81"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" t="s">
+        <v>206</v>
+      </c>
+      <c r="E82" t="s">
+        <v>207</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0784557797759042</v>
+      </c>
+      <c r="G82"/>
+      <c r="H82"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" t="s">
+        <v>208</v>
+      </c>
+      <c r="E83" t="s">
+        <v>209</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84"/>
+      <c r="C84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" t="s">
+        <v>210</v>
+      </c>
+      <c r="E84" t="s">
+        <v>211</v>
+      </c>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85"/>
+      <c r="C85" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" t="s">
+        <v>212</v>
+      </c>
+      <c r="E85" t="s">
+        <v>213</v>
+      </c>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86"/>
+      <c r="C86" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" t="s">
+        <v>214</v>
+      </c>
+      <c r="E86" t="s">
+        <v>215</v>
+      </c>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87"/>
+      <c r="C87" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" t="s">
+        <v>216</v>
+      </c>
+      <c r="E87" t="s">
+        <v>217</v>
+      </c>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88"/>
+      <c r="C88" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" t="s">
+        <v>218</v>
+      </c>
+      <c r="E88" t="s">
+        <v>219</v>
+      </c>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89"/>
+      <c r="C89" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" t="s">
+        <v>220</v>
+      </c>
+      <c r="E89" t="s">
+        <v>221</v>
+      </c>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90"/>
+      <c r="C90" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90" t="s">
+        <v>222</v>
+      </c>
+      <c r="E90" t="s">
+        <v>223</v>
+      </c>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91"/>
+      <c r="C91" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" t="s">
+        <v>224</v>
+      </c>
+      <c r="E91" t="s">
+        <v>225</v>
+      </c>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92"/>
+      <c r="C92" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" t="s">
+        <v>226</v>
+      </c>
+      <c r="E92" t="s">
+        <v>227</v>
+      </c>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93"/>
+      <c r="C93" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" t="s">
+        <v>228</v>
+      </c>
+      <c r="E93" t="s">
+        <v>229</v>
+      </c>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94"/>
+      <c r="C94" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" t="s">
+        <v>230</v>
+      </c>
+      <c r="E94" t="s">
+        <v>231</v>
+      </c>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>31</v>
+      </c>
+      <c r="B95" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" t="s">
+        <v>88</v>
+      </c>
+      <c r="E95" t="s">
+        <v>232</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.659565953527023</v>
+      </c>
+      <c r="G95"/>
+      <c r="H95" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96" t="s">
+        <v>38</v>
+      </c>
+      <c r="C96" t="s">
+        <v>39</v>
+      </c>
+      <c r="D96" t="s">
+        <v>91</v>
+      </c>
+      <c r="E96" t="s">
+        <v>233</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.686089916983254</v>
+      </c>
+      <c r="G96"/>
+      <c r="H96" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" t="s">
+        <v>93</v>
+      </c>
+      <c r="E97" t="s">
+        <v>234</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.745954310719343</v>
+      </c>
+      <c r="G97"/>
+      <c r="H97" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" t="s">
+        <v>38</v>
+      </c>
+      <c r="C98" t="s">
+        <v>39</v>
+      </c>
+      <c r="D98" t="s">
+        <v>95</v>
+      </c>
+      <c r="E98" t="s">
+        <v>235</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.811338748261489</v>
+      </c>
+      <c r="G98"/>
+      <c r="H98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99" t="s">
+        <v>97</v>
+      </c>
+      <c r="E99" t="s">
+        <v>236</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.809744299921751</v>
+      </c>
+      <c r="G99"/>
+      <c r="H99" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" t="s">
+        <v>39</v>
+      </c>
+      <c r="D100" t="s">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>237</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.865086310600159</v>
+      </c>
+      <c r="G100"/>
+      <c r="H100" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" t="s">
+        <v>39</v>
+      </c>
+      <c r="D101" t="s">
+        <v>101</v>
+      </c>
+      <c r="E101" t="s">
+        <v>238</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.750825399678107</v>
+      </c>
+      <c r="G101"/>
+      <c r="H101" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>31</v>
+      </c>
+      <c r="B102" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102" t="s">
+        <v>39</v>
+      </c>
+      <c r="D102" t="s">
+        <v>103</v>
+      </c>
+      <c r="E102" t="s">
+        <v>239</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.452605980334882</v>
+      </c>
+      <c r="G102"/>
+      <c r="H102" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>31</v>
+      </c>
+      <c r="B103" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D103" t="s">
+        <v>240</v>
+      </c>
+      <c r="E103" t="s">
+        <v>241</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.554034700801258</v>
+      </c>
+      <c r="G103"/>
+      <c r="H103" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>31</v>
+      </c>
+      <c r="B104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" t="s">
+        <v>39</v>
+      </c>
+      <c r="D104" t="s">
+        <v>242</v>
+      </c>
+      <c r="E104" t="s">
+        <v>243</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.573174545666156</v>
+      </c>
+      <c r="G104"/>
+      <c r="H104" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>31</v>
+      </c>
+      <c r="B105" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105" t="s">
+        <v>39</v>
+      </c>
+      <c r="D105" t="s">
+        <v>244</v>
+      </c>
+      <c r="E105" t="s">
+        <v>245</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.765902157854518</v>
+      </c>
+      <c r="G105"/>
+      <c r="H105" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" t="s">
+        <v>39</v>
+      </c>
+      <c r="D106" t="s">
+        <v>246</v>
+      </c>
+      <c r="E106" t="s">
+        <v>247</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.79387041136145</v>
+      </c>
+      <c r="G106"/>
+      <c r="H106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>31</v>
+      </c>
+      <c r="B107" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" t="s">
+        <v>39</v>
+      </c>
+      <c r="D107" t="s">
+        <v>248</v>
+      </c>
+      <c r="E107" t="s">
+        <v>249</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.553224286484267</v>
+      </c>
+      <c r="G107"/>
+      <c r="H107" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>31</v>
+      </c>
+      <c r="B108" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" t="s">
+        <v>39</v>
+      </c>
+      <c r="D108" t="s">
+        <v>250</v>
+      </c>
+      <c r="E108" t="s">
+        <v>251</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.784530397934115</v>
+      </c>
+      <c r="G108"/>
+      <c r="H108" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" t="s">
+        <v>41</v>
+      </c>
+      <c r="D109" t="s">
+        <v>105</v>
+      </c>
+      <c r="E109" t="s">
+        <v>252</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.661007081282848</v>
+      </c>
+      <c r="G109"/>
+      <c r="H109"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>31</v>
+      </c>
+      <c r="B110" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" t="s">
+        <v>41</v>
+      </c>
+      <c r="D110" t="s">
+        <v>107</v>
+      </c>
+      <c r="E110" t="s">
+        <v>253</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.79265945015369</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.836833121256007</v>
+      </c>
+      <c r="H110"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>31</v>
+      </c>
+      <c r="B111" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" t="s">
+        <v>41</v>
+      </c>
+      <c r="D111" t="s">
+        <v>109</v>
+      </c>
+      <c r="E111" t="s">
+        <v>254</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.77904256870332</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.908994213527441</v>
+      </c>
+      <c r="H111"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>31</v>
+      </c>
+      <c r="B112" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" t="s">
+        <v>41</v>
+      </c>
+      <c r="D112" t="s">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>255</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.748867014461357</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.763707399555409</v>
+      </c>
+      <c r="H112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>31</v>
+      </c>
+      <c r="B113" t="s">
+        <v>40</v>
+      </c>
+      <c r="C113" t="s">
+        <v>41</v>
+      </c>
+      <c r="D113" t="s">
+        <v>113</v>
+      </c>
+      <c r="E113" t="s">
+        <v>256</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.594532601061956</v>
+      </c>
+      <c r="G113"/>
+      <c r="H113"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>31</v>
+      </c>
+      <c r="B114" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" t="s">
+        <v>257</v>
+      </c>
+      <c r="E114" t="s">
+        <v>258</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.687398314358876</v>
+      </c>
+      <c r="G114"/>
+      <c r="H114"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>31</v>
+      </c>
+      <c r="B115" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" t="s">
+        <v>41</v>
+      </c>
+      <c r="D115" t="s">
+        <v>259</v>
+      </c>
+      <c r="E115" t="s">
+        <v>260</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.702480222416647</v>
+      </c>
+      <c r="G115"/>
+      <c r="H115"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>31</v>
+      </c>
+      <c r="B116" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" t="s">
+        <v>41</v>
+      </c>
+      <c r="D116" t="s">
+        <v>261</v>
+      </c>
+      <c r="E116" t="s">
+        <v>262</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.651621267207423</v>
+      </c>
+      <c r="G116"/>
+      <c r="H116"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>31</v>
+      </c>
+      <c r="B117" t="s">
+        <v>40</v>
+      </c>
+      <c r="C117" t="s">
+        <v>41</v>
+      </c>
+      <c r="D117" t="s">
+        <v>263</v>
+      </c>
+      <c r="E117" t="s">
+        <v>264</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.742704728538742</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.622680874504286</v>
+      </c>
+      <c r="H117"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>42</v>
+      </c>
+      <c r="B118" t="s">
+        <v>43</v>
+      </c>
+      <c r="C118" t="s">
         <v>44</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D118" t="s">
+        <v>208</v>
+      </c>
+      <c r="E118" t="s">
+        <v>265</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.4544444857101</v>
+      </c>
+      <c r="G118"/>
+      <c r="H118" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>42</v>
+      </c>
+      <c r="B119" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" t="s">
+        <v>44</v>
+      </c>
+      <c r="D119" t="s">
+        <v>210</v>
+      </c>
+      <c r="E119" t="s">
+        <v>266</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.777205860899977</v>
+      </c>
+      <c r="G119"/>
+      <c r="H119" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>42</v>
+      </c>
+      <c r="B120" t="s">
+        <v>43</v>
+      </c>
+      <c r="C120" t="s">
+        <v>44</v>
+      </c>
+      <c r="D120" t="s">
+        <v>212</v>
+      </c>
+      <c r="E120" t="s">
+        <v>267</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.594004484728153</v>
+      </c>
+      <c r="G120"/>
+      <c r="H120" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>42</v>
+      </c>
+      <c r="B121" t="s">
+        <v>43</v>
+      </c>
+      <c r="C121" t="s">
+        <v>44</v>
+      </c>
+      <c r="D121" t="s">
+        <v>214</v>
+      </c>
+      <c r="E121" t="s">
+        <v>268</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.8451254579465</v>
+      </c>
+      <c r="G121"/>
+      <c r="H121" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>42</v>
+      </c>
+      <c r="B122" t="s">
+        <v>43</v>
+      </c>
+      <c r="C122" t="s">
+        <v>44</v>
+      </c>
+      <c r="D122" t="s">
+        <v>216</v>
+      </c>
+      <c r="E122" t="s">
+        <v>269</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.85444678304479</v>
+      </c>
+      <c r="G122"/>
+      <c r="H122" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
         <v>45</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.881663039430921</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.858868025325449</v>
+      <c r="B123" t="s">
+        <v>46</v>
+      </c>
+      <c r="C123" t="s">
+        <v>47</v>
+      </c>
+      <c r="D123" t="s">
+        <v>129</v>
+      </c>
+      <c r="E123" t="s">
+        <v>270</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.649525666376511</v>
+      </c>
+      <c r="G123"/>
+      <c r="H123" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>45</v>
+      </c>
+      <c r="B124" t="s">
+        <v>46</v>
+      </c>
+      <c r="C124" t="s">
+        <v>47</v>
+      </c>
+      <c r="D124" t="s">
+        <v>131</v>
+      </c>
+      <c r="E124" t="s">
+        <v>271</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.649003781410312</v>
+      </c>
+      <c r="G124"/>
+      <c r="H124" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>45</v>
+      </c>
+      <c r="B125" t="s">
+        <v>46</v>
+      </c>
+      <c r="C125" t="s">
+        <v>47</v>
+      </c>
+      <c r="D125" t="s">
+        <v>133</v>
+      </c>
+      <c r="E125" t="s">
+        <v>272</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.400065167108555</v>
+      </c>
+      <c r="G125"/>
+      <c r="H125" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>45</v>
+      </c>
+      <c r="B126" t="s">
+        <v>46</v>
+      </c>
+      <c r="C126" t="s">
+        <v>47</v>
+      </c>
+      <c r="D126" t="s">
+        <v>135</v>
+      </c>
+      <c r="E126" t="s">
+        <v>273</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.560238568307914</v>
+      </c>
+      <c r="G126"/>
+      <c r="H126" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>45</v>
+      </c>
+      <c r="B127" t="s">
+        <v>46</v>
+      </c>
+      <c r="C127" t="s">
+        <v>47</v>
+      </c>
+      <c r="D127" t="s">
+        <v>137</v>
+      </c>
+      <c r="E127" t="s">
+        <v>274</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.603236811343177</v>
+      </c>
+      <c r="G127"/>
+      <c r="H127" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>45</v>
+      </c>
+      <c r="B128" t="s">
+        <v>46</v>
+      </c>
+      <c r="C128" t="s">
+        <v>47</v>
+      </c>
+      <c r="D128" t="s">
+        <v>275</v>
+      </c>
+      <c r="E128" t="s">
+        <v>276</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.717892248339915</v>
+      </c>
+      <c r="G128"/>
+      <c r="H128" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>45</v>
+      </c>
+      <c r="B129" t="s">
+        <v>46</v>
+      </c>
+      <c r="C129" t="s">
+        <v>47</v>
+      </c>
+      <c r="D129" t="s">
+        <v>277</v>
+      </c>
+      <c r="E129" t="s">
+        <v>278</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.707169023187222</v>
+      </c>
+      <c r="G129"/>
+      <c r="H129" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>45</v>
+      </c>
+      <c r="B130" t="s">
+        <v>46</v>
+      </c>
+      <c r="C130" t="s">
+        <v>47</v>
+      </c>
+      <c r="D130" t="s">
+        <v>279</v>
+      </c>
+      <c r="E130" t="s">
+        <v>280</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.59123705780514</v>
+      </c>
+      <c r="G130"/>
+      <c r="H130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>45</v>
+      </c>
+      <c r="B131" t="s">
+        <v>46</v>
+      </c>
+      <c r="C131" t="s">
+        <v>47</v>
+      </c>
+      <c r="D131" t="s">
+        <v>281</v>
+      </c>
+      <c r="E131" t="s">
+        <v>282</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.393208402825889</v>
+      </c>
+      <c r="G131"/>
+      <c r="H131" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>45</v>
+      </c>
+      <c r="B132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C132" t="s">
+        <v>49</v>
+      </c>
+      <c r="D132" t="s">
+        <v>283</v>
+      </c>
+      <c r="E132" t="s">
+        <v>284</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.659524414812274</v>
+      </c>
+      <c r="G132"/>
+      <c r="H132" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>45</v>
+      </c>
+      <c r="B133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C133" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" t="s">
+        <v>285</v>
+      </c>
+      <c r="E133" t="s">
+        <v>286</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.644230208565231</v>
+      </c>
+      <c r="G133"/>
+      <c r="H133" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>45</v>
+      </c>
+      <c r="B134" t="s">
+        <v>48</v>
+      </c>
+      <c r="C134" t="s">
+        <v>49</v>
+      </c>
+      <c r="D134" t="s">
+        <v>287</v>
+      </c>
+      <c r="E134" t="s">
+        <v>288</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.675866235820177</v>
+      </c>
+      <c r="G134"/>
+      <c r="H134" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>45</v>
+      </c>
+      <c r="B135" t="s">
+        <v>48</v>
+      </c>
+      <c r="C135" t="s">
+        <v>49</v>
+      </c>
+      <c r="D135" t="s">
+        <v>289</v>
+      </c>
+      <c r="E135" t="s">
+        <v>290</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.636866341751929</v>
+      </c>
+      <c r="G135"/>
+      <c r="H135" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>45</v>
+      </c>
+      <c r="B136" t="s">
+        <v>48</v>
+      </c>
+      <c r="C136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D136" t="s">
+        <v>291</v>
+      </c>
+      <c r="E136" t="s">
+        <v>292</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.73954755746729</v>
+      </c>
+      <c r="G136"/>
+      <c r="H136" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>45</v>
+      </c>
+      <c r="B137" t="s">
+        <v>48</v>
+      </c>
+      <c r="C137" t="s">
+        <v>49</v>
+      </c>
+      <c r="D137" t="s">
+        <v>293</v>
+      </c>
+      <c r="E137" t="s">
+        <v>294</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.719826829830253</v>
+      </c>
+      <c r="G137"/>
+      <c r="H137" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>45</v>
+      </c>
+      <c r="B138" t="s">
+        <v>48</v>
+      </c>
+      <c r="C138" t="s">
+        <v>49</v>
+      </c>
+      <c r="D138" t="s">
+        <v>295</v>
+      </c>
+      <c r="E138" t="s">
+        <v>296</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.705859361585753</v>
+      </c>
+      <c r="G138"/>
+      <c r="H138" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>45</v>
+      </c>
+      <c r="B139" t="s">
+        <v>48</v>
+      </c>
+      <c r="C139" t="s">
+        <v>49</v>
+      </c>
+      <c r="D139" t="s">
+        <v>297</v>
+      </c>
+      <c r="E139" t="s">
+        <v>298</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.698251423013189</v>
+      </c>
+      <c r="G139"/>
+      <c r="H139" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>45</v>
+      </c>
+      <c r="B140" t="s">
+        <v>50</v>
+      </c>
+      <c r="C140" t="s">
+        <v>51</v>
+      </c>
+      <c r="D140" t="s">
+        <v>299</v>
+      </c>
+      <c r="E140" t="s">
+        <v>300</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.798396610756904</v>
+      </c>
+      <c r="G140"/>
+      <c r="H140" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B141" t="s">
+        <v>50</v>
+      </c>
+      <c r="C141" t="s">
+        <v>51</v>
+      </c>
+      <c r="D141" t="s">
+        <v>301</v>
+      </c>
+      <c r="E141" t="s">
+        <v>302</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.794636647407312</v>
+      </c>
+      <c r="G141"/>
+      <c r="H141" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>45</v>
+      </c>
+      <c r="B142" t="s">
+        <v>50</v>
+      </c>
+      <c r="C142" t="s">
+        <v>51</v>
+      </c>
+      <c r="D142" t="s">
+        <v>303</v>
+      </c>
+      <c r="E142" t="s">
+        <v>304</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.812684072317335</v>
+      </c>
+      <c r="G142"/>
+      <c r="H142" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>45</v>
+      </c>
+      <c r="B143" t="s">
+        <v>50</v>
+      </c>
+      <c r="C143" t="s">
+        <v>51</v>
+      </c>
+      <c r="D143" t="s">
+        <v>305</v>
+      </c>
+      <c r="E143" t="s">
+        <v>306</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.735487568486874</v>
+      </c>
+      <c r="G143"/>
+      <c r="H143" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>45</v>
+      </c>
+      <c r="B144" t="s">
+        <v>50</v>
+      </c>
+      <c r="C144" t="s">
+        <v>51</v>
+      </c>
+      <c r="D144" t="s">
+        <v>307</v>
+      </c>
+      <c r="E144" t="s">
+        <v>308</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.792053819529653</v>
+      </c>
+      <c r="G144"/>
+      <c r="H144" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>45</v>
+      </c>
+      <c r="B145" t="s">
+        <v>52</v>
+      </c>
+      <c r="C145" t="s">
+        <v>53</v>
+      </c>
+      <c r="D145" t="s">
+        <v>187</v>
+      </c>
+      <c r="E145" t="s">
+        <v>309</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.36852190600135</v>
+      </c>
+      <c r="G145"/>
+      <c r="H145" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>45</v>
+      </c>
+      <c r="B146" t="s">
+        <v>52</v>
+      </c>
+      <c r="C146" t="s">
+        <v>53</v>
+      </c>
+      <c r="D146" t="s">
+        <v>188</v>
+      </c>
+      <c r="E146" t="s">
+        <v>310</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.749373856593205</v>
+      </c>
+      <c r="G146"/>
+      <c r="H146" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>45</v>
+      </c>
+      <c r="B147" t="s">
+        <v>52</v>
+      </c>
+      <c r="C147" t="s">
+        <v>53</v>
+      </c>
+      <c r="D147" t="s">
+        <v>189</v>
+      </c>
+      <c r="E147" t="s">
+        <v>311</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.682937369275462</v>
+      </c>
+      <c r="G147"/>
+      <c r="H147" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>45</v>
+      </c>
+      <c r="B148" t="s">
+        <v>52</v>
+      </c>
+      <c r="C148" t="s">
+        <v>53</v>
+      </c>
+      <c r="D148" t="s">
+        <v>190</v>
+      </c>
+      <c r="E148" t="s">
+        <v>312</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.824393076064986</v>
+      </c>
+      <c r="G148"/>
+      <c r="H148" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>45</v>
+      </c>
+      <c r="B149" t="s">
+        <v>52</v>
+      </c>
+      <c r="C149" t="s">
+        <v>53</v>
+      </c>
+      <c r="D149" t="s">
+        <v>192</v>
+      </c>
+      <c r="E149" t="s">
+        <v>313</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.611655234204341</v>
+      </c>
+      <c r="G149"/>
+      <c r="H149" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>45</v>
+      </c>
+      <c r="B150" t="s">
+        <v>54</v>
+      </c>
+      <c r="C150" t="s">
+        <v>55</v>
+      </c>
+      <c r="D150" t="s">
+        <v>314</v>
+      </c>
+      <c r="E150" t="s">
+        <v>315</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.656023983239483</v>
+      </c>
+      <c r="G150"/>
+      <c r="H150" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>45</v>
+      </c>
+      <c r="B151" t="s">
+        <v>54</v>
+      </c>
+      <c r="C151" t="s">
+        <v>55</v>
+      </c>
+      <c r="D151" t="s">
+        <v>316</v>
+      </c>
+      <c r="E151" t="s">
+        <v>317</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.735227634114564</v>
+      </c>
+      <c r="G151"/>
+      <c r="H151" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>45</v>
+      </c>
+      <c r="B152" t="s">
+        <v>54</v>
+      </c>
+      <c r="C152" t="s">
+        <v>55</v>
+      </c>
+      <c r="D152" t="s">
+        <v>318</v>
+      </c>
+      <c r="E152" t="s">
+        <v>319</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.784397137194395</v>
+      </c>
+      <c r="G152"/>
+      <c r="H152" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>45</v>
+      </c>
+      <c r="B153" t="s">
+        <v>54</v>
+      </c>
+      <c r="C153" t="s">
+        <v>55</v>
+      </c>
+      <c r="D153" t="s">
+        <v>320</v>
+      </c>
+      <c r="E153" t="s">
+        <v>321</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.66107905567626</v>
+      </c>
+      <c r="G153"/>
+      <c r="H153" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>45</v>
+      </c>
+      <c r="B154" t="s">
+        <v>54</v>
+      </c>
+      <c r="C154" t="s">
+        <v>55</v>
+      </c>
+      <c r="D154" t="s">
+        <v>322</v>
+      </c>
+      <c r="E154" t="s">
+        <v>323</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.743966244081883</v>
+      </c>
+      <c r="G154"/>
+      <c r="H154" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>45</v>
+      </c>
+      <c r="B155" t="s">
+        <v>54</v>
+      </c>
+      <c r="C155" t="s">
+        <v>55</v>
+      </c>
+      <c r="D155" t="s">
+        <v>324</v>
+      </c>
+      <c r="E155" t="s">
+        <v>325</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.791523690883544</v>
+      </c>
+      <c r="G155"/>
+      <c r="H155" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>45</v>
+      </c>
+      <c r="B156" t="s">
+        <v>54</v>
+      </c>
+      <c r="C156" t="s">
+        <v>55</v>
+      </c>
+      <c r="D156" t="s">
+        <v>326</v>
+      </c>
+      <c r="E156" t="s">
+        <v>327</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.603410526714285</v>
+      </c>
+      <c r="G156"/>
+      <c r="H156" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>45</v>
+      </c>
+      <c r="B157" t="s">
+        <v>54</v>
+      </c>
+      <c r="C157" t="s">
+        <v>55</v>
+      </c>
+      <c r="D157" t="s">
+        <v>328</v>
+      </c>
+      <c r="E157" t="s">
+        <v>329</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.749877136949426</v>
+      </c>
+      <c r="G157"/>
+      <c r="H157" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>45</v>
+      </c>
+      <c r="B158" t="s">
+        <v>54</v>
+      </c>
+      <c r="C158" t="s">
+        <v>55</v>
+      </c>
+      <c r="D158" t="s">
+        <v>330</v>
+      </c>
+      <c r="E158" t="s">
+        <v>331</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.728127840903411</v>
+      </c>
+      <c r="G158"/>
+      <c r="H158" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>45</v>
+      </c>
+      <c r="B159" t="s">
+        <v>54</v>
+      </c>
+      <c r="C159" t="s">
+        <v>55</v>
+      </c>
+      <c r="D159" t="s">
+        <v>332</v>
+      </c>
+      <c r="E159" t="s">
+        <v>333</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.794387206647921</v>
+      </c>
+      <c r="G159"/>
+      <c r="H159" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>45</v>
+      </c>
+      <c r="B160" t="s">
+        <v>54</v>
+      </c>
+      <c r="C160" t="s">
+        <v>55</v>
+      </c>
+      <c r="D160" t="s">
+        <v>334</v>
+      </c>
+      <c r="E160" t="s">
+        <v>335</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.800168927330668</v>
+      </c>
+      <c r="G160"/>
+      <c r="H160" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>45</v>
+      </c>
+      <c r="B161" t="s">
+        <v>56</v>
+      </c>
+      <c r="C161" t="s">
+        <v>57</v>
+      </c>
+      <c r="D161" t="s">
+        <v>336</v>
+      </c>
+      <c r="E161" t="s">
+        <v>337</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.850482827125866</v>
+      </c>
+      <c r="G161"/>
+      <c r="H161" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>45</v>
+      </c>
+      <c r="B162" t="s">
+        <v>56</v>
+      </c>
+      <c r="C162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D162" t="s">
+        <v>338</v>
+      </c>
+      <c r="E162" t="s">
+        <v>339</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.849934303190414</v>
+      </c>
+      <c r="G162"/>
+      <c r="H162" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>45</v>
+      </c>
+      <c r="B163" t="s">
+        <v>56</v>
+      </c>
+      <c r="C163" t="s">
+        <v>57</v>
+      </c>
+      <c r="D163" t="s">
+        <v>340</v>
+      </c>
+      <c r="E163" t="s">
+        <v>341</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.803607565082147</v>
+      </c>
+      <c r="G163"/>
+      <c r="H163" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>45</v>
+      </c>
+      <c r="B164" t="s">
+        <v>56</v>
+      </c>
+      <c r="C164" t="s">
+        <v>57</v>
+      </c>
+      <c r="D164" t="s">
+        <v>342</v>
+      </c>
+      <c r="E164" t="s">
+        <v>343</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.701257001968091</v>
+      </c>
+      <c r="G164"/>
+      <c r="H164" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>45</v>
+      </c>
+      <c r="B165" t="s">
+        <v>56</v>
+      </c>
+      <c r="C165" t="s">
+        <v>57</v>
+      </c>
+      <c r="D165" t="s">
+        <v>344</v>
+      </c>
+      <c r="E165" t="s">
+        <v>345</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.736972534184786</v>
+      </c>
+      <c r="G165"/>
+      <c r="H165" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>45</v>
+      </c>
+      <c r="B166" t="s">
+        <v>56</v>
+      </c>
+      <c r="C166" t="s">
+        <v>57</v>
+      </c>
+      <c r="D166" t="s">
+        <v>346</v>
+      </c>
+      <c r="E166" t="s">
+        <v>347</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.789245032316199</v>
+      </c>
+      <c r="G166"/>
+      <c r="H166" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>45</v>
+      </c>
+      <c r="B167" t="s">
+        <v>56</v>
+      </c>
+      <c r="C167" t="s">
+        <v>57</v>
+      </c>
+      <c r="D167" t="s">
+        <v>348</v>
+      </c>
+      <c r="E167" t="s">
+        <v>349</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.896443527131008</v>
+      </c>
+      <c r="G167"/>
+      <c r="H167" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>45</v>
+      </c>
+      <c r="B168" t="s">
+        <v>56</v>
+      </c>
+      <c r="C168" t="s">
+        <v>57</v>
+      </c>
+      <c r="D168" t="s">
+        <v>350</v>
+      </c>
+      <c r="E168" t="s">
+        <v>351</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.718665509997383</v>
+      </c>
+      <c r="G168"/>
+      <c r="H168" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169" t="s">
+        <v>56</v>
+      </c>
+      <c r="C169" t="s">
+        <v>57</v>
+      </c>
+      <c r="D169" t="s">
+        <v>352</v>
+      </c>
+      <c r="E169" t="s">
+        <v>353</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.870934454698837</v>
+      </c>
+      <c r="G169"/>
+      <c r="H169" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1015,10 +6098,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>354</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2">
@@ -1026,15 +6109,30 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>356</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>357</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>358</v>
       </c>
       <c r="E2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1061,16 +6159,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>362</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2">
@@ -1078,19 +6176,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>356</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>357</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>364</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>365</v>
       </c>
       <c r="G2"/>
     </row>
@@ -1099,19 +6197,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>356</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>357</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>366</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>367</v>
       </c>
       <c r="G3"/>
     </row>
@@ -1120,19 +6218,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>356</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>357</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>368</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>369</v>
       </c>
       <c r="G4"/>
     </row>
@@ -1141,19 +6239,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>356</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>357</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>370</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>371</v>
       </c>
       <c r="G5"/>
     </row>
@@ -1162,19 +6260,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>356</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>357</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>372</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>373</v>
       </c>
       <c r="G6"/>
     </row>
@@ -1183,21 +6281,168 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>356</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>357</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>374</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>375</v>
       </c>
       <c r="G7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" t="s">
+        <v>376</v>
+      </c>
+      <c r="F8" t="s">
+        <v>377</v>
+      </c>
+      <c r="G8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" t="s">
+        <v>378</v>
+      </c>
+      <c r="F9" t="s">
+        <v>379</v>
+      </c>
+      <c r="G9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" t="s">
+        <v>380</v>
+      </c>
+      <c r="F10" t="s">
+        <v>381</v>
+      </c>
+      <c r="G10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" t="s">
+        <v>382</v>
+      </c>
+      <c r="F11" t="s">
+        <v>383</v>
+      </c>
+      <c r="G11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F12" t="s">
+        <v>385</v>
+      </c>
+      <c r="G12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" t="s">
+        <v>386</v>
+      </c>
+      <c r="F13" t="s">
+        <v>387</v>
+      </c>
+      <c r="G13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>359</v>
+      </c>
+      <c r="C14" t="s">
+        <v>360</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" t="s">
+        <v>388</v>
+      </c>
+      <c r="F14" t="s">
+        <v>389</v>
+      </c>
+      <c r="G14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02-reportes-scripts/02-psicometrico/01-cfa-pca/01-cfa-pca-inspeccion.xlsx
+++ b/02-reportes-scripts/02-psicometrico/01-cfa-pca/01-cfa-pca-inspeccion.xlsx
@@ -1,1198 +1,1294 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EM22\02-reportes-scripts\02-psicometrico\01-cfa-pca\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
   </bookViews>
   <sheets>
-    <sheet name="CFA_indicadores de ajuste" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CFA_cargas factoriales" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="PCA_var_explicada" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="PCA_cargas" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="CFA_indicadores de ajuste" sheetId="1" r:id="rId1"/>
+    <sheet name="CFA_cargas factoriales" sheetId="2" r:id="rId2"/>
+    <sheet name="PCA_var_explicada" sheetId="3" r:id="rId3"/>
+    <sheet name="PCA_cargas" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
-  <si>
-    <t xml:space="preserve">cuestionario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cod_constructo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constructo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cfi_inicial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tli_inicial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">srmr_inicial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rmsea_inicial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cfi_sugerido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tli_sugerido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">srmr_sugerido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rmsea_sugerido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM2022_2Sdirector_EBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIR2SGEN_COLDOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colaboración entre docentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIR2SGEN_CLIMDOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clima escolar: Interacción entre docentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIR2SGEN_CRAPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creencias sobre la naturaleza de la enseñanza y el aprendizaje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIR2SGEN_BIENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Índice de Bienestar General WHO-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM2022_2SdocenteCOM_EBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SGEN_BURN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agotamiento emocional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SGEN_AUTDIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autoeficacia para el manejo de la disciplina en el aula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SLEC_ACTREF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividades asociadas a la capacidad de Reflexión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SLEC_CLCOAPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creencias sobre la lectura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SGEN_PERTEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percepciones sobre los resultados del uso de la tecnología en el aprendizaje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM2022_2SdocenteCYT_EBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SCYT_CREEAPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creencias sobre el aprendizaje de la Ciencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SCYT_CREEEPISTEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creencias epistemológicas sobre la ciencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SCYT_AUTCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autoeficacia docente para la enseñanza de CyT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SCYT_AUTACTINV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autoeficacia docente para el desarrollo de actividades de investigación científica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SCYT_AUTCOMPCRIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autoeficacia docente para el desarrollo de la competencia de posición crítica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM2022_2Sestudiante_EBRD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EST2SGEN_SENPER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sentido de pertenencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM2022_2Sestudiante_EBRD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EST2SLEC_ESTLEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estrategias de lectura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EST2SLEC_ACTREFL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actvidades de la capacidad de reflexión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EST2SMAT_DISRP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disrupción en clase - Matemática</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EST2SMAT_ACTCOG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activación cognitiva - Matemática</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EST2SMAT_EVFORM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prácticas de evaluación formativa - Matemática</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EST2SMAT_AUTOEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autoeficacia en Matemática</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cod_preg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enunciado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est.inicial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est.sugerido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trabajar en conjunto para proyectos específicos (concursos de conocimiento, otros).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercambiar entre ellos materiales de enseñanza.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Involucrarse en debates internos sobre el desarrollo de aprendizajes de grupos específicos de estudiantes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debatir sobre las prácticas de evaluación sumativa y formativa que se realizan en la escuela.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercambiar ideas sobre el manejo de conductas inadecuadas de los estudiantes en el aula.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los docentes dialogan abiertamente entre sí.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los docentes están dispuestos a trabajar en equipo sin ninguna distinción.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los docentes tienen problemas para trabajar en equipo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los docentes comparten un vínculo de identidad con la escuela.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los docentes interactúan con cordialidad y respeto dentro y fuera de la escuela.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La relación entre los docentes se caracteriza por la tensión y el conflicto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los docentes colaboran entre sí para alcanzar los objetivos trazados por la institución educativa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIR2SGEN_CRAPRTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los estudiantes alcanzarán los aprendizajes esperados si los docentes mantienen el aula tranquila.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIR2SGEN_CRAPRCON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es más importante que los docentes se enfoquen en los procesos de pensamiento y razonamiento que en el contenido curricular específico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los buenos docentes demuestran la forma correcta en que se resuelve un problema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La enseñanza debe basarse en tareas con respuestas claras y correctas, en torno a ideas que la mayoría de los estudiantes puedan comprender rápidamente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El grado de aprendizaje de los estudiantes depende de los conocimientos previos que tengan, por eso los docentes necesitan enseñar mayormente con hechos, procedimientos, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los docentes deben permitir que los estudiantes piensen en soluciones prácticas a sus trabajos antes de mostrarles cómo hacerlo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los docentes deben promover que los estudiantes indaguen por su cuenta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los estudiantes aprenden mejor con docentes que les alientan a buscar soluciones por su cuenta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p17_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me he sentido alegre y de buen humor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p17_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me he sentido tranquilo y relajado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p17_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me he sentido activo y con energía.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p17_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me he despertado fresco y descansado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p17_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi vida diaria ha estado llena de cosas que me interesan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p05_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me siento emocionalmente agotado por mi trabajo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p05_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me siento cansado al final de la jornada de trabajo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p05_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuando me levanto por la mañana y me enfrento a otra jornada de trabajo, me siento fatigado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p05_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siento que trabajar todo el día con estudiantes supone un gran esfuerzo y me cansa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p05_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siento que mi trabajo me está desgastando.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p05_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me siento frustrado en mi trabajo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p05_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creo que trabajo demasiado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p06_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lograr que los estudiantes respeten las normas de la clase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p06_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manejar las interrupciones de los estudiantes durante las clases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p06_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evitar que algún estudiante distraiga al resto durante las clases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p06_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acordar con los estudiantes cómo se espera que se comporten en clase.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p06_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Establecer rutinas en clase para que las actividades planeadas se realicen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p11_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los oriento para que piensen en ejemplos o evoquen algún recuerdo a partir de lo que leen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p11_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fomento que dialoguen o comenten sobre lo que quiso comunicar el autor del texto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p11_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promuevo que debatan sobre algún aspecto controversial encontrado en el texto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p11_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los motivo a buscar información que les permita ampliar lo leído y compararlo con otros textos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p11_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fomento que dialoguen sobre los pasajes del texto que hayan generado mayores dificultades, a fin de aclararlos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p11_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les propongo preguntas para formular juicios críticos sobre el contenido o la forma del texto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SLEC_CLCOTN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p12_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los buenos lectores nacen con ese talento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p12_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La mejor manera de mejorar en lectura es leyendo bastante.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p12_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algunas personas comprenden lo que leen sin necesidad de esforzarse.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p12_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los buenos lectores se han esforzado mucho para desarrollar sus habilidades.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p12_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algunas personas tienen un don especial para la lectura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p12_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deseo, dedicación y tiempo suficiente es lo que se necesita para convertirse en un buen lector.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p12_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Una persona puede leer mejor con la ayuda de un buen profesor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p12_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algunas personas nunca serán buenas lectoras a pesar de lo mucho que lo intenten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayuda a los estudiantes a desarrollar un mayor interés en el aprendizaje.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SGEN_PERTECPOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Da como resultado una expresión escrita más pobre entre los estudiantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SGEN_PERTECNEG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permite a los estudiantes colaborar de manera más efectiva.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promueve que los estudiantes copien material de Internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anima a los estudiantes a comunicarse más con sus compañeros.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayuda a mejorar la capacidad de los estudiantes para leer y escribir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distrae a los estudiantes en sus procesos de aprendizaje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permite a los estudiantes ser más creativos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permite a los estudiantes expresar mejor sus ideas y pensamientos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permite a los estudiantes acceder a mejores fuentes de información.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impide la formación de conceptos adecuados por parte de los estudiantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p09_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p09_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p09_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p09_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acordar con los estudiantes cómo se espera que se comporten en clase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p09_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aprender ciencia significa memorizar conceptos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aprender ciencia significa recordar lo que el docente expone en clase.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aprender ciencia significa sacarse buenas notas en los exámenes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aprender ciencia es realizar cálculos matemáticos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aprender ciencia significa saber cómo usar las fórmulas científicas para resolver un problema científico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aprender ciencia significa estudiar de memoria los pasos del método científico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las teorías científicas basadas en experimentaciones u observaciones rigurosas pueden cambiar a través del tiempo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El conocimiento científico es inexacto, siempre hay cierta incertidumbre.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lo que afirman los científicos siempre es verdad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los libros contienen ideas científicas que pueden cambiar con el tiempo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todos los problemas científicos se resuelven de una sola manera.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El conocimiento científico siempre es verdadero.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A veces los científicos cambian de opinión sobre lo que es verdad en ciencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lo más importante de hacer ciencia es llegar a la respuesta correcta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantear actividades relacionadas con el movimiento rectilíneo uniforme y movimiento rectilíneo uniformemente variado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantear ejemplos de temperatura y calor para los estudiantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explicar a profundidad la clasificación de los seres vivos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explicar las conversiones entre múltiplos y submúltiplos de las unidades del Sistema Internacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explicar a profundidad los temas sobre el origen y evolución del universo y sus teorías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explicar contenidos sobre las células, su apariencia y estructura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enseñar los temas de calentamiento global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enseñar los temas de ciclos biogeoquímicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enseñar sobre las teorías atómicas y la Tabla Periódica de los elementos químicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar actividades que fomenten el sustento de posiciones frente a situaciones sociocientíficas (controversias sociales que tienen su base en nociones científicas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar actividades que desarrollen el pensamiento crítico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explicar la selección natural de los seres vivos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observar un fenómeno natural y describir lo que ven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observar la demostración de un principio científico a través de un experimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diseñar y planificar experimentos o indagaciones científicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar experimentos o indagaciones científicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presentar resultados sobre experimentos o investigaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interpretar los resultados de experimentos o investigaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaborar conclusiones usando evidencia de experimentos o investigaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memorizar hechos y principios científicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usar fórmulas científicas y leyes para resolver problemas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hacer trabajo de campo (por ejemplo, recolectar información o hacer observaciones fuera del aula)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluar los procedimientos experimentales que realizan en clase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proponer nuevas indagaciones a partir de los resultados o conclusiones de sus experimentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seguir los pasos de una guía de laboratorio para realizar sus experimentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buscar y evaluar información científica para tomar decisiones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desarrollar estudios de caso para que los estudiantes emitan un juicio crítico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desarrollar actividades para que los estudiantes aprendan a formular argumentos científicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantear actividades para que los estudiantes desarrollen habilidades de argumentación científica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promover que los estudiantes realicen afirmaciones o conclusiones sustentadas en evidencias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desarrollar tareas colaborativas de construcción de argumentos científicos entre los estudiantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p17_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verificar que los estudiantes emitan una opinión sustentada de un tema científico usando bibliografía actualizada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p17_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orientar a los estudiantes a formular opiniones sustentadas frente a temas científicos controversiales (por ejemplo: la clonación, modificación genética, efectos de la inteligencia artificial, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p17_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acompañar la metacognición de los estudiantes sobre sus formas de aprender en ciencias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p17_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proponer situaciones que requieran que los estudiantes busquen y evalúen información científica para tomar decisiones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferiría faltar al colegio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi colegio es un lugar donde me siento solo(a).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferiría estudiar en otro colegio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En el colegio, me siento fuera de lugar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi colegio es un lugar donde me siento como un extraño.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuando leo, tengo claro cuál es mi propósito de lectura.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las cosas que conozco me ayudan a entender lo que leo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antes de leer un texto, lo reviso rápidamente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trato de imaginar lo que voy leyendo para recordarlo después.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuando leo una información trato de opinar o tomar una postura sobre esta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p06_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuando encuentro información que me resulta contradictoria o poco clara, vuelvo a leer el texto para comprobar que entendí bien.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p06_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuando un texto se hace difícil, lo vuelvo a leer para mejorar mi comprensión.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p06_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intento deducir el significado de palabras o frases desconocidas utilizando el propio texto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p06_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuando encuentro una palabra desconocida, consulto un diccionario porque no es posible deducir a partir del propio texto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p07_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opinar sobre las ideas o la postura del autor del texto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p07_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dar tu opinión personal sobre el texto (por ejemplo: ¿Te gustó? Y si fue así, ¿por qué?).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p07_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explicar el aporte de los gráficos y/o ilustraciones del texto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p07_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opinar sobre el uso de los recursos formales del texto (por ejemplo, la negrita, las mayúsculas o las comillas).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p07_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opinar si es que el texto podría ser controversial para los lectores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p07_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comparar el contenido del texto con tu propia experiencia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p07_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comparar el texto con otros libros o textos con un tema similar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p07_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comparar textos y determinar cuál tiene información más confiable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p08_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durante la clase hay desorden en el salón.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p08_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El profesor tiene que esperar mucho tiempo para que los estudiantes se callen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p08_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algunos estudiantes hacen tanto desorden que se hace difícil aprender.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p08_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuando un estudiante participa en clase, otros interrumpen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p08_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los estudiantes se distraen en la clase.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nos deja tareas que requieren más análisis en lugar de solo aplicar fórmulas o resolver ecuaciones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nos pide explicar cómo hemos resuelto un problema o ejercicio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nos pide que reflexionemos sobre cómo se relacionan los temas nuevos con los anteriores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nos pide que expliquemos nuestras respuestas con detalle.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nos presenta problemas que pueden ser resueltos de muchas maneras.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p09_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al iniciar la clase nos explica lo que vamos a hacer y aprender.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p09_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conversa con nosotros sobre la importancia de lo que vamos a aprender.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p09_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nos aconseja sobre cómo podemos lograr los aprendizajes que nos propone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p09_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usa ejemplos para mostrarnos cómo deberían ser nuestros trabajos o tareas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p09_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nos dice que debemos practicar más para hacerlo mejor la próxima vez.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p09_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nos explica cómo podemos mejorar cuando cometemos un error.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p09_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nos devuelve nuestros trabajos o exámenes explicándonos dónde están nuestros errores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p09_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nos da recomendaciones cuando estamos haciendo en una tarea.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p09_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nos permite mejorar nuestro trabajo después de recibir sus opiniones o recomendaciones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p09_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nos pide que analicemos nuestras respuestas para entender por qué hemos fallado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p09_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nos pide que analicemos nuestros errores para no volver a cometerlos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p10_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puedo entender cualquier tema que se relacione con la matemática.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p10_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuando nos enseñan un tema nuevo de matemática, lo aprendo sin mayor dificultad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p10_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creo que puedo comprender un tema difícil en matemática.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p10_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puedo ayudar a mis compañeros con las tareas de matemática que ellos no entienden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p10_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puedo hacer sin ayuda una tarea de matemática.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p10_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confío en que puedo aprobar matemática sin mayor problema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p10_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soy bueno o buena resolviendo problemas matemáticos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p10_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me siento más capaz mientras voy aprendiendo más cosas en matemática.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p10_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siento que soy bueno o buena en matemática.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pca_inicial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pca_sugerido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIR2SGEN_DECIACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inclusión de comunidad educativa en decisiones escolares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50,14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EST2SGEN_ENTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disposición del entorno de aprendizaje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56,56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cargas.inicial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cargas.sugerido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Docentes de la institución educativa que dirige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Padres de familia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autoridades educativas de la UGEL o de la DRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Directores de otras instituciones educativas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organismos no gubernamentales (ONG)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entidades privadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuve acceso a una computadora, laptop o tablet cuando lo necesité.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuve acceso a un celular o smartphone cuando lo necesité.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuve acceso a Internet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi conexión a Internet fue lo suficientemente buena para mis actividades escolares.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuve un lugar tranquilo para estudiar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuve tiempo suficiente para hacer mis actividades escolares.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuve los recursos de aprendizaje necesarios en mi casa (libros de texto, cuadernos de trabajo, enciclopedias, etc.).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,727</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="420">
+  <si>
+    <t>cuestionario</t>
+  </si>
+  <si>
+    <t>cod_constructo</t>
+  </si>
+  <si>
+    <t>constructo</t>
+  </si>
+  <si>
+    <t>cfi_inicial</t>
+  </si>
+  <si>
+    <t>tli_inicial</t>
+  </si>
+  <si>
+    <t>srmr_inicial</t>
+  </si>
+  <si>
+    <t>rmsea_inicial</t>
+  </si>
+  <si>
+    <t>cfi_sugerido</t>
+  </si>
+  <si>
+    <t>tli_sugerido</t>
+  </si>
+  <si>
+    <t>srmr_sugerido</t>
+  </si>
+  <si>
+    <t>rmsea_sugerido</t>
+  </si>
+  <si>
+    <t>EM2022_2Sdirector_EBR</t>
+  </si>
+  <si>
+    <t>DIR2SGEN_COLDOC</t>
+  </si>
+  <si>
+    <t>Colaboración entre docentes</t>
+  </si>
+  <si>
+    <t>DIR2SGEN_CLIMDOC</t>
+  </si>
+  <si>
+    <t>Clima escolar: Interacción entre docentes</t>
+  </si>
+  <si>
+    <t>DIR2SGEN_CRAPR</t>
+  </si>
+  <si>
+    <t>Creencias sobre la naturaleza de la enseñanza y el aprendizaje</t>
+  </si>
+  <si>
+    <t>DIR2SGEN_BIENES</t>
+  </si>
+  <si>
+    <t>Índice de Bienestar General WHO-5</t>
+  </si>
+  <si>
+    <t>EM2022_2SdocenteCOM_EBR</t>
+  </si>
+  <si>
+    <t>DOC2SGEN_BURN2</t>
+  </si>
+  <si>
+    <t>Agotamiento emocional</t>
+  </si>
+  <si>
+    <t>DOC2SGEN_AUTDIS</t>
+  </si>
+  <si>
+    <t>Autoeficacia para el manejo de la disciplina en el aula</t>
+  </si>
+  <si>
+    <t>DOC2SLEC_ACTREF</t>
+  </si>
+  <si>
+    <t>Actividades asociadas a la capacidad de Reflexión</t>
+  </si>
+  <si>
+    <t>DOC2SLEC_CLCOAPR</t>
+  </si>
+  <si>
+    <t>Creencias sobre la lectura</t>
+  </si>
+  <si>
+    <t>DOC2SGEN_PERTEC</t>
+  </si>
+  <si>
+    <t>Percepciones sobre los resultados del uso de la tecnología en el aprendizaje</t>
+  </si>
+  <si>
+    <t>EM2022_2SdocenteCYT_EBR</t>
+  </si>
+  <si>
+    <t>DOC2SCYT_CREEAPR</t>
+  </si>
+  <si>
+    <t>Creencias sobre el aprendizaje de la Ciencia</t>
+  </si>
+  <si>
+    <t>DOC2SCYT_CREEEPISTE</t>
+  </si>
+  <si>
+    <t>Creencias epistemológicas sobre la ciencia</t>
+  </si>
+  <si>
+    <t>DOC2SCYT_AUTCT</t>
+  </si>
+  <si>
+    <t>Autoeficacia docente para la enseñanza de CyT</t>
+  </si>
+  <si>
+    <t>DOC2SCYT_AUTACTINV</t>
+  </si>
+  <si>
+    <t>Autoeficacia docente para el desarrollo de actividades de investigación científica</t>
+  </si>
+  <si>
+    <t>DOC2SCYT_AUTCOMPCRI</t>
+  </si>
+  <si>
+    <t>Autoeficacia docente para el desarrollo de la competencia de posición crítica</t>
+  </si>
+  <si>
+    <t>EM2022_2Sestudiante_EBRD1</t>
+  </si>
+  <si>
+    <t>EST2SGEN_SENPER</t>
+  </si>
+  <si>
+    <t>Sentido de pertenencia</t>
+  </si>
+  <si>
+    <t>EM2022_2Sestudiante_EBRD2</t>
+  </si>
+  <si>
+    <t>EST2SLEC_ESTLEC</t>
+  </si>
+  <si>
+    <t>Estrategias de lectura</t>
+  </si>
+  <si>
+    <t>EST2SLEC_ACTREFL</t>
+  </si>
+  <si>
+    <t>Actvidades de la capacidad de reflexión</t>
+  </si>
+  <si>
+    <t>EST2SMAT_DISRP</t>
+  </si>
+  <si>
+    <t>Disrupción en clase - Matemática</t>
+  </si>
+  <si>
+    <t>EST2SMAT_ACTCOG</t>
+  </si>
+  <si>
+    <t>Activación cognitiva - Matemática</t>
+  </si>
+  <si>
+    <t>EST2SMAT_EVFORM</t>
+  </si>
+  <si>
+    <t>Prácticas de evaluación formativa - Matemática</t>
+  </si>
+  <si>
+    <t>EST2SMAT_AUTOEF</t>
+  </si>
+  <si>
+    <t>Autoeficacia en Matemática</t>
+  </si>
+  <si>
+    <t>cod_preg</t>
+  </si>
+  <si>
+    <t>Enunciado</t>
+  </si>
+  <si>
+    <t>Est.inicial</t>
+  </si>
+  <si>
+    <t>Est.sugerido</t>
+  </si>
+  <si>
+    <t>Escala</t>
+  </si>
+  <si>
+    <t>p13_02</t>
+  </si>
+  <si>
+    <t>Trabajar en conjunto para proyectos específicos (concursos de conocimiento, otros).</t>
+  </si>
+  <si>
+    <t>p13_03</t>
+  </si>
+  <si>
+    <t>Intercambiar entre ellos materiales de enseñanza.</t>
+  </si>
+  <si>
+    <t>p13_04</t>
+  </si>
+  <si>
+    <t>Involucrarse en debates internos sobre el desarrollo de aprendizajes de grupos específicos de estudiantes.</t>
+  </si>
+  <si>
+    <t>p13_05</t>
+  </si>
+  <si>
+    <t>Debatir sobre las prácticas de evaluación sumativa y formativa que se realizan en la escuela.</t>
+  </si>
+  <si>
+    <t>p13_06</t>
+  </si>
+  <si>
+    <t>Intercambiar ideas sobre el manejo de conductas inadecuadas de los estudiantes en el aula.</t>
+  </si>
+  <si>
+    <t>p14_01</t>
+  </si>
+  <si>
+    <t>Los docentes dialogan abiertamente entre sí.</t>
+  </si>
+  <si>
+    <t>p14_02</t>
+  </si>
+  <si>
+    <t>Los docentes están dispuestos a trabajar en equipo sin ninguna distinción.</t>
+  </si>
+  <si>
+    <t>p14_03</t>
+  </si>
+  <si>
+    <t>Los docentes tienen problemas para trabajar en equipo.</t>
+  </si>
+  <si>
+    <t>p14_04</t>
+  </si>
+  <si>
+    <t>Los docentes comparten un vínculo de identidad con la escuela.</t>
+  </si>
+  <si>
+    <t>p14_05</t>
+  </si>
+  <si>
+    <t>Los docentes interactúan con cordialidad y respeto dentro y fuera de la escuela.</t>
+  </si>
+  <si>
+    <t>p14_06</t>
+  </si>
+  <si>
+    <t>La relación entre los docentes se caracteriza por la tensión y el conflicto.</t>
+  </si>
+  <si>
+    <t>p14_07</t>
+  </si>
+  <si>
+    <t>Los docentes colaboran entre sí para alcanzar los objetivos trazados por la institución educativa.</t>
+  </si>
+  <si>
+    <t>DIR2SGEN_CRAPRTD</t>
+  </si>
+  <si>
+    <t>p16_01</t>
+  </si>
+  <si>
+    <t>Los estudiantes alcanzarán los aprendizajes esperados si los docentes mantienen el aula tranquila.</t>
+  </si>
+  <si>
+    <t>DIR2SGEN_CRAPRCON</t>
+  </si>
+  <si>
+    <t>p16_02</t>
+  </si>
+  <si>
+    <t>Es más importante que los docentes se enfoquen en los procesos de pensamiento y razonamiento que en el contenido curricular específico.</t>
+  </si>
+  <si>
+    <t>p16_03</t>
+  </si>
+  <si>
+    <t>Los buenos docentes demuestran la forma correcta en que se resuelve un problema.</t>
+  </si>
+  <si>
+    <t>p16_04</t>
+  </si>
+  <si>
+    <t>La enseñanza debe basarse en tareas con respuestas claras y correctas, en torno a ideas que la mayoría de los estudiantes puedan comprender rápidamente.</t>
+  </si>
+  <si>
+    <t>p16_05</t>
+  </si>
+  <si>
+    <t>El grado de aprendizaje de los estudiantes depende de los conocimientos previos que tengan, por eso los docentes necesitan enseñar mayormente con hechos, procedimientos, etc.</t>
+  </si>
+  <si>
+    <t>p16_06</t>
+  </si>
+  <si>
+    <t>Los docentes deben permitir que los estudiantes piensen en soluciones prácticas a sus trabajos antes de mostrarles cómo hacerlo.</t>
+  </si>
+  <si>
+    <t>p16_07</t>
+  </si>
+  <si>
+    <t>Los docentes deben promover que los estudiantes indaguen por su cuenta.</t>
+  </si>
+  <si>
+    <t>p16_08</t>
+  </si>
+  <si>
+    <t>Los estudiantes aprenden mejor con docentes que les alientan a buscar soluciones por su cuenta.</t>
+  </si>
+  <si>
+    <t>p17_01</t>
+  </si>
+  <si>
+    <t>Me he sentido alegre y de buen humor.</t>
+  </si>
+  <si>
+    <t>p17_02</t>
+  </si>
+  <si>
+    <t>Me he sentido tranquilo y relajado.</t>
+  </si>
+  <si>
+    <t>p17_03</t>
+  </si>
+  <si>
+    <t>Me he sentido activo y con energía.</t>
+  </si>
+  <si>
+    <t>p17_04</t>
+  </si>
+  <si>
+    <t>Me he despertado fresco y descansado.</t>
+  </si>
+  <si>
+    <t>p17_05</t>
+  </si>
+  <si>
+    <t>Mi vida diaria ha estado llena de cosas que me interesan.</t>
+  </si>
+  <si>
+    <t>p05_01</t>
+  </si>
+  <si>
+    <t>Me siento emocionalmente agotado por mi trabajo.</t>
+  </si>
+  <si>
+    <t>p05_02</t>
+  </si>
+  <si>
+    <t>Me siento cansado al final de la jornada de trabajo.</t>
+  </si>
+  <si>
+    <t>p05_03</t>
+  </si>
+  <si>
+    <t>Cuando me levanto por la mañana y me enfrento a otra jornada de trabajo, me siento fatigado.</t>
+  </si>
+  <si>
+    <t>p05_04</t>
+  </si>
+  <si>
+    <t>Siento que trabajar todo el día con estudiantes supone un gran esfuerzo y me cansa.</t>
+  </si>
+  <si>
+    <t>p05_05</t>
+  </si>
+  <si>
+    <t>Siento que mi trabajo me está desgastando.</t>
+  </si>
+  <si>
+    <t>p05_06</t>
+  </si>
+  <si>
+    <t>Me siento frustrado en mi trabajo.</t>
+  </si>
+  <si>
+    <t>p05_07</t>
+  </si>
+  <si>
+    <t>Creo que trabajo demasiado.</t>
+  </si>
+  <si>
+    <t>p06_01</t>
+  </si>
+  <si>
+    <t>Lograr que los estudiantes respeten las normas de la clase</t>
+  </si>
+  <si>
+    <t>p06_02</t>
+  </si>
+  <si>
+    <t>Manejar las interrupciones de los estudiantes durante las clases</t>
+  </si>
+  <si>
+    <t>p06_03</t>
+  </si>
+  <si>
+    <t>Evitar que algún estudiante distraiga al resto durante las clases</t>
+  </si>
+  <si>
+    <t>p06_04</t>
+  </si>
+  <si>
+    <t>Acordar con los estudiantes cómo se espera que se comporten en clase.</t>
+  </si>
+  <si>
+    <t>p06_05</t>
+  </si>
+  <si>
+    <t>Establecer rutinas en clase para que las actividades planeadas se realicen</t>
+  </si>
+  <si>
+    <t>p11_01</t>
+  </si>
+  <si>
+    <t>Los oriento para que piensen en ejemplos o evoquen algún recuerdo a partir de lo que leen.</t>
+  </si>
+  <si>
+    <t>p11_02</t>
+  </si>
+  <si>
+    <t>Fomento que dialoguen o comenten sobre lo que quiso comunicar el autor del texto.</t>
+  </si>
+  <si>
+    <t>p11_03</t>
+  </si>
+  <si>
+    <t>Promuevo que debatan sobre algún aspecto controversial encontrado en el texto.</t>
+  </si>
+  <si>
+    <t>p11_04</t>
+  </si>
+  <si>
+    <t>Los motivo a buscar información que les permita ampliar lo leído y compararlo con otros textos.</t>
+  </si>
+  <si>
+    <t>p11_05</t>
+  </si>
+  <si>
+    <t>Fomento que dialoguen sobre los pasajes del texto que hayan generado mayores dificultades, a fin de aclararlos.</t>
+  </si>
+  <si>
+    <t>p11_06</t>
+  </si>
+  <si>
+    <t>Les propongo preguntas para formular juicios críticos sobre el contenido o la forma del texto.</t>
+  </si>
+  <si>
+    <t>DOC2SLEC_CLCOTN</t>
+  </si>
+  <si>
+    <t>p12_01</t>
+  </si>
+  <si>
+    <t>Los buenos lectores nacen con ese talento.</t>
+  </si>
+  <si>
+    <t>p12_02</t>
+  </si>
+  <si>
+    <t>La mejor manera de mejorar en lectura es leyendo bastante.</t>
+  </si>
+  <si>
+    <t>p12_03</t>
+  </si>
+  <si>
+    <t>Algunas personas comprenden lo que leen sin necesidad de esforzarse.</t>
+  </si>
+  <si>
+    <t>p12_04</t>
+  </si>
+  <si>
+    <t>Los buenos lectores se han esforzado mucho para desarrollar sus habilidades.</t>
+  </si>
+  <si>
+    <t>p12_05</t>
+  </si>
+  <si>
+    <t>Algunas personas tienen un don especial para la lectura</t>
+  </si>
+  <si>
+    <t>p12_06</t>
+  </si>
+  <si>
+    <t>Deseo, dedicación y tiempo suficiente es lo que se necesita para convertirse en un buen lector.</t>
+  </si>
+  <si>
+    <t>p12_07</t>
+  </si>
+  <si>
+    <t>Una persona puede leer mejor con la ayuda de un buen profesor.</t>
+  </si>
+  <si>
+    <t>p12_08</t>
+  </si>
+  <si>
+    <t>Algunas personas nunca serán buenas lectoras a pesar de lo mucho que lo intenten.</t>
+  </si>
+  <si>
+    <t>p13_01</t>
+  </si>
+  <si>
+    <t>Ayuda a los estudiantes a desarrollar un mayor interés en el aprendizaje.</t>
+  </si>
+  <si>
+    <t>DOC2SGEN_PERTECPOS</t>
+  </si>
+  <si>
+    <t>Da como resultado una expresión escrita más pobre entre los estudiantes</t>
+  </si>
+  <si>
+    <t>DOC2SGEN_PERTECNEG</t>
+  </si>
+  <si>
+    <t>Permite a los estudiantes colaborar de manera más efectiva.</t>
+  </si>
+  <si>
+    <t>Promueve que los estudiantes copien material de Internet</t>
+  </si>
+  <si>
+    <t>Anima a los estudiantes a comunicarse más con sus compañeros.</t>
+  </si>
+  <si>
+    <t>Ayuda a mejorar la capacidad de los estudiantes para leer y escribir.</t>
+  </si>
+  <si>
+    <t>p13_07</t>
+  </si>
+  <si>
+    <t>Distrae a los estudiantes en sus procesos de aprendizaje</t>
+  </si>
+  <si>
+    <t>p13_08</t>
+  </si>
+  <si>
+    <t>Permite a los estudiantes ser más creativos.</t>
+  </si>
+  <si>
+    <t>p13_09</t>
+  </si>
+  <si>
+    <t>Permite a los estudiantes expresar mejor sus ideas y pensamientos.</t>
+  </si>
+  <si>
+    <t>p13_10</t>
+  </si>
+  <si>
+    <t>Permite a los estudiantes acceder a mejores fuentes de información.</t>
+  </si>
+  <si>
+    <t>p13_11</t>
+  </si>
+  <si>
+    <t>Impide la formación de conceptos adecuados por parte de los estudiantes</t>
+  </si>
+  <si>
+    <t>p09_01</t>
+  </si>
+  <si>
+    <t>p09_02</t>
+  </si>
+  <si>
+    <t>p09_03</t>
+  </si>
+  <si>
+    <t>p09_04</t>
+  </si>
+  <si>
+    <t>Acordar con los estudiantes cómo se espera que se comporten en clase</t>
+  </si>
+  <si>
+    <t>p09_05</t>
+  </si>
+  <si>
+    <t>Aprender ciencia significa memorizar conceptos.</t>
+  </si>
+  <si>
+    <t>Aprender ciencia significa recordar lo que el docente expone en clase.</t>
+  </si>
+  <si>
+    <t>Aprender ciencia significa sacarse buenas notas en los exámenes.</t>
+  </si>
+  <si>
+    <t>Aprender ciencia es realizar cálculos matemáticos.</t>
+  </si>
+  <si>
+    <t>Aprender ciencia significa saber cómo usar las fórmulas científicas para resolver un problema científico.</t>
+  </si>
+  <si>
+    <t>Aprender ciencia significa estudiar de memoria los pasos del método científico.</t>
+  </si>
+  <si>
+    <t>Las teorías científicas basadas en experimentaciones u observaciones rigurosas pueden cambiar a través del tiempo.</t>
+  </si>
+  <si>
+    <t>El conocimiento científico es inexacto, siempre hay cierta incertidumbre.</t>
+  </si>
+  <si>
+    <t>Lo que afirman los científicos siempre es verdad.</t>
+  </si>
+  <si>
+    <t>Los libros contienen ideas científicas que pueden cambiar con el tiempo.</t>
+  </si>
+  <si>
+    <t>Todos los problemas científicos se resuelven de una sola manera.</t>
+  </si>
+  <si>
+    <t>El conocimiento científico siempre es verdadero.</t>
+  </si>
+  <si>
+    <t>A veces los científicos cambian de opinión sobre lo que es verdad en ciencia</t>
+  </si>
+  <si>
+    <t>p14_08</t>
+  </si>
+  <si>
+    <t>Lo más importante de hacer ciencia es llegar a la respuesta correcta.</t>
+  </si>
+  <si>
+    <t>p15_01</t>
+  </si>
+  <si>
+    <t>Plantear actividades relacionadas con el movimiento rectilíneo uniforme y movimiento rectilíneo uniformemente variado</t>
+  </si>
+  <si>
+    <t>p15_02</t>
+  </si>
+  <si>
+    <t>Plantear ejemplos de temperatura y calor para los estudiantes</t>
+  </si>
+  <si>
+    <t>p15_03</t>
+  </si>
+  <si>
+    <t>Explicar a profundidad la clasificación de los seres vivos</t>
+  </si>
+  <si>
+    <t>p15_04</t>
+  </si>
+  <si>
+    <t>Explicar las conversiones entre múltiplos y submúltiplos de las unidades del Sistema Internacional</t>
+  </si>
+  <si>
+    <t>p15_05</t>
+  </si>
+  <si>
+    <t>Explicar a profundidad los temas sobre el origen y evolución del universo y sus teorías</t>
+  </si>
+  <si>
+    <t>p15_06</t>
+  </si>
+  <si>
+    <t>Explicar contenidos sobre las células, su apariencia y estructura</t>
+  </si>
+  <si>
+    <t>p15_07</t>
+  </si>
+  <si>
+    <t>Enseñar los temas de calentamiento global</t>
+  </si>
+  <si>
+    <t>p15_08</t>
+  </si>
+  <si>
+    <t>Enseñar los temas de ciclos biogeoquímicos</t>
+  </si>
+  <si>
+    <t>p15_09</t>
+  </si>
+  <si>
+    <t>Enseñar sobre las teorías atómicas y la Tabla Periódica de los elementos químicos</t>
+  </si>
+  <si>
+    <t>p15_10</t>
+  </si>
+  <si>
+    <t>Realizar actividades que fomenten el sustento de posiciones frente a situaciones sociocientíficas (controversias sociales que tienen su base en nociones científicas)</t>
+  </si>
+  <si>
+    <t>p15_11</t>
+  </si>
+  <si>
+    <t>Realizar actividades que desarrollen el pensamiento crítico</t>
+  </si>
+  <si>
+    <t>p15_12</t>
+  </si>
+  <si>
+    <t>Explicar la selección natural de los seres vivos</t>
+  </si>
+  <si>
+    <t>Observar un fenómeno natural y describir lo que ven</t>
+  </si>
+  <si>
+    <t>Observar la demostración de un principio científico a través de un experimento</t>
+  </si>
+  <si>
+    <t>Diseñar y planificar experimentos o indagaciones científicas</t>
+  </si>
+  <si>
+    <t>Realizar experimentos o indagaciones científicas</t>
+  </si>
+  <si>
+    <t>Presentar resultados sobre experimentos o investigaciones</t>
+  </si>
+  <si>
+    <t>Interpretar los resultados de experimentos o investigaciones</t>
+  </si>
+  <si>
+    <t>Elaborar conclusiones usando evidencia de experimentos o investigaciones</t>
+  </si>
+  <si>
+    <t>Memorizar hechos y principios científicos</t>
+  </si>
+  <si>
+    <t>p16_09</t>
+  </si>
+  <si>
+    <t>Usar fórmulas científicas y leyes para resolver problemas</t>
+  </si>
+  <si>
+    <t>p16_10</t>
+  </si>
+  <si>
+    <t>Hacer trabajo de campo (por ejemplo, recolectar información o hacer observaciones fuera del aula)</t>
+  </si>
+  <si>
+    <t>p16_11</t>
+  </si>
+  <si>
+    <t>Evaluar los procedimientos experimentales que realizan en clase</t>
+  </si>
+  <si>
+    <t>p16_12</t>
+  </si>
+  <si>
+    <t>Proponer nuevas indagaciones a partir de los resultados o conclusiones de sus experimentos</t>
+  </si>
+  <si>
+    <t>p16_13</t>
+  </si>
+  <si>
+    <t>Seguir los pasos de una guía de laboratorio para realizar sus experimentos</t>
+  </si>
+  <si>
+    <t>p16_14</t>
+  </si>
+  <si>
+    <t>Buscar y evaluar información científica para tomar decisiones</t>
+  </si>
+  <si>
+    <t>Desarrollar estudios de caso para que los estudiantes emitan un juicio crítico</t>
+  </si>
+  <si>
+    <t>Desarrollar actividades para que los estudiantes aprendan a formular argumentos científicos</t>
+  </si>
+  <si>
+    <t>Plantear actividades para que los estudiantes desarrollen habilidades de argumentación científica</t>
+  </si>
+  <si>
+    <t>Promover que los estudiantes realicen afirmaciones o conclusiones sustentadas en evidencias</t>
+  </si>
+  <si>
+    <t>Desarrollar tareas colaborativas de construcción de argumentos científicos entre los estudiantes</t>
+  </si>
+  <si>
+    <t>p17_06</t>
+  </si>
+  <si>
+    <t>Verificar que los estudiantes emitan una opinión sustentada de un tema científico usando bibliografía actualizada</t>
+  </si>
+  <si>
+    <t>p17_07</t>
+  </si>
+  <si>
+    <t>Orientar a los estudiantes a formular opiniones sustentadas frente a temas científicos controversiales (por ejemplo: la clonación, modificación genética, efectos de la inteligencia artificial, etc.)</t>
+  </si>
+  <si>
+    <t>p17_08</t>
+  </si>
+  <si>
+    <t>Acompañar la metacognición de los estudiantes sobre sus formas de aprender en ciencias</t>
+  </si>
+  <si>
+    <t>p17_09</t>
+  </si>
+  <si>
+    <t>Proponer situaciones que requieran que los estudiantes busquen y evalúen información científica para tomar decisiones</t>
+  </si>
+  <si>
+    <t>Preferiría faltar al colegio.</t>
+  </si>
+  <si>
+    <t>Mi colegio es un lugar donde me siento solo(a).</t>
+  </si>
+  <si>
+    <t>Preferiría estudiar en otro colegio.</t>
+  </si>
+  <si>
+    <t>En el colegio, me siento fuera de lugar.</t>
+  </si>
+  <si>
+    <t>Mi colegio es un lugar donde me siento como un extraño.</t>
+  </si>
+  <si>
+    <t>Cuando leo, tengo claro cuál es mi propósito de lectura.</t>
+  </si>
+  <si>
+    <t>Las cosas que conozco me ayudan a entender lo que leo.</t>
+  </si>
+  <si>
+    <t>Antes de leer un texto, lo reviso rápidamente.</t>
+  </si>
+  <si>
+    <t>Trato de imaginar lo que voy leyendo para recordarlo después.</t>
+  </si>
+  <si>
+    <t>Cuando leo una información trato de opinar o tomar una postura sobre esta.</t>
+  </si>
+  <si>
+    <t>p06_06</t>
+  </si>
+  <si>
+    <t>Cuando encuentro información que me resulta contradictoria o poco clara, vuelvo a leer el texto para comprobar que entendí bien.</t>
+  </si>
+  <si>
+    <t>p06_07</t>
+  </si>
+  <si>
+    <t>Cuando un texto se hace difícil, lo vuelvo a leer para mejorar mi comprensión.</t>
+  </si>
+  <si>
+    <t>p06_08</t>
+  </si>
+  <si>
+    <t>Intento deducir el significado de palabras o frases desconocidas utilizando el propio texto.</t>
+  </si>
+  <si>
+    <t>p06_09</t>
+  </si>
+  <si>
+    <t>Cuando encuentro una palabra desconocida, consulto un diccionario porque no es posible deducir a partir del propio texto.</t>
+  </si>
+  <si>
+    <t>p07_04</t>
+  </si>
+  <si>
+    <t>Opinar sobre las ideas o la postura del autor del texto.</t>
+  </si>
+  <si>
+    <t>p07_05</t>
+  </si>
+  <si>
+    <t>Dar tu opinión personal sobre el texto (por ejemplo: ¿Te gustó? Y si fue así, ¿por qué?).</t>
+  </si>
+  <si>
+    <t>p07_06</t>
+  </si>
+  <si>
+    <t>Explicar el aporte de los gráficos y/o ilustraciones del texto.</t>
+  </si>
+  <si>
+    <t>p07_07</t>
+  </si>
+  <si>
+    <t>Opinar sobre el uso de los recursos formales del texto (por ejemplo, la negrita, las mayúsculas o las comillas).</t>
+  </si>
+  <si>
+    <t>p07_08</t>
+  </si>
+  <si>
+    <t>Opinar si es que el texto podría ser controversial para los lectores.</t>
+  </si>
+  <si>
+    <t>p07_09</t>
+  </si>
+  <si>
+    <t>Comparar el contenido del texto con tu propia experiencia.</t>
+  </si>
+  <si>
+    <t>p07_10</t>
+  </si>
+  <si>
+    <t>Comparar el texto con otros libros o textos con un tema similar.</t>
+  </si>
+  <si>
+    <t>p07_11</t>
+  </si>
+  <si>
+    <t>Comparar textos y determinar cuál tiene información más confiable.</t>
+  </si>
+  <si>
+    <t>p08_01</t>
+  </si>
+  <si>
+    <t>Durante la clase hay desorden en el salón.</t>
+  </si>
+  <si>
+    <t>p08_02</t>
+  </si>
+  <si>
+    <t>El profesor tiene que esperar mucho tiempo para que los estudiantes se callen.</t>
+  </si>
+  <si>
+    <t>p08_03</t>
+  </si>
+  <si>
+    <t>Algunos estudiantes hacen tanto desorden que se hace difícil aprender.</t>
+  </si>
+  <si>
+    <t>p08_04</t>
+  </si>
+  <si>
+    <t>Cuando un estudiante participa en clase, otros interrumpen.</t>
+  </si>
+  <si>
+    <t>p08_05</t>
+  </si>
+  <si>
+    <t>Los estudiantes se distraen en la clase.</t>
+  </si>
+  <si>
+    <t>Nos deja tareas que requieren más análisis en lugar de solo aplicar fórmulas o resolver ecuaciones.</t>
+  </si>
+  <si>
+    <t>Nos pide explicar cómo hemos resuelto un problema o ejercicio.</t>
+  </si>
+  <si>
+    <t>Nos pide que reflexionemos sobre cómo se relacionan los temas nuevos con los anteriores.</t>
+  </si>
+  <si>
+    <t>Nos pide que expliquemos nuestras respuestas con detalle.</t>
+  </si>
+  <si>
+    <t>Nos presenta problemas que pueden ser resueltos de muchas maneras.</t>
+  </si>
+  <si>
+    <t>p09_06</t>
+  </si>
+  <si>
+    <t>Al iniciar la clase nos explica lo que vamos a hacer y aprender.</t>
+  </si>
+  <si>
+    <t>p09_07</t>
+  </si>
+  <si>
+    <t>Conversa con nosotros sobre la importancia de lo que vamos a aprender.</t>
+  </si>
+  <si>
+    <t>p09_08</t>
+  </si>
+  <si>
+    <t>Nos aconseja sobre cómo podemos lograr los aprendizajes que nos propone.</t>
+  </si>
+  <si>
+    <t>p09_09</t>
+  </si>
+  <si>
+    <t>Usa ejemplos para mostrarnos cómo deberían ser nuestros trabajos o tareas.</t>
+  </si>
+  <si>
+    <t>p09_10</t>
+  </si>
+  <si>
+    <t>Nos dice que debemos practicar más para hacerlo mejor la próxima vez.</t>
+  </si>
+  <si>
+    <t>p09_11</t>
+  </si>
+  <si>
+    <t>Nos explica cómo podemos mejorar cuando cometemos un error.</t>
+  </si>
+  <si>
+    <t>p09_12</t>
+  </si>
+  <si>
+    <t>Nos devuelve nuestros trabajos o exámenes explicándonos dónde están nuestros errores.</t>
+  </si>
+  <si>
+    <t>p09_13</t>
+  </si>
+  <si>
+    <t>Nos da recomendaciones cuando estamos haciendo en una tarea.</t>
+  </si>
+  <si>
+    <t>p09_14</t>
+  </si>
+  <si>
+    <t>Nos permite mejorar nuestro trabajo después de recibir sus opiniones o recomendaciones.</t>
+  </si>
+  <si>
+    <t>p09_15</t>
+  </si>
+  <si>
+    <t>Nos pide que analicemos nuestras respuestas para entender por qué hemos fallado.</t>
+  </si>
+  <si>
+    <t>p09_16</t>
+  </si>
+  <si>
+    <t>Nos pide que analicemos nuestros errores para no volver a cometerlos.</t>
+  </si>
+  <si>
+    <t>p10_01</t>
+  </si>
+  <si>
+    <t>Puedo entender cualquier tema que se relacione con la matemática.</t>
+  </si>
+  <si>
+    <t>p10_02</t>
+  </si>
+  <si>
+    <t>Cuando nos enseñan un tema nuevo de matemática, lo aprendo sin mayor dificultad.</t>
+  </si>
+  <si>
+    <t>p10_03</t>
+  </si>
+  <si>
+    <t>Creo que puedo comprender un tema difícil en matemática.</t>
+  </si>
+  <si>
+    <t>p10_04</t>
+  </si>
+  <si>
+    <t>Puedo ayudar a mis compañeros con las tareas de matemática que ellos no entienden.</t>
+  </si>
+  <si>
+    <t>p10_05</t>
+  </si>
+  <si>
+    <t>Puedo hacer sin ayuda una tarea de matemática.</t>
+  </si>
+  <si>
+    <t>p10_06</t>
+  </si>
+  <si>
+    <t>Confío en que puedo aprobar matemática sin mayor problema.</t>
+  </si>
+  <si>
+    <t>p10_07</t>
+  </si>
+  <si>
+    <t>Soy bueno o buena resolviendo problemas matemáticos.</t>
+  </si>
+  <si>
+    <t>p10_08</t>
+  </si>
+  <si>
+    <t>Me siento más capaz mientras voy aprendiendo más cosas en matemática.</t>
+  </si>
+  <si>
+    <t>p10_09</t>
+  </si>
+  <si>
+    <t>Siento que soy bueno o buena en matemática.</t>
+  </si>
+  <si>
+    <t>pca_inicial</t>
+  </si>
+  <si>
+    <t>pca_sugerido</t>
+  </si>
+  <si>
+    <t>DIR2SGEN_DECIACT</t>
+  </si>
+  <si>
+    <t>Inclusión de comunidad educativa en decisiones escolares</t>
+  </si>
+  <si>
+    <t>50,12</t>
+  </si>
+  <si>
+    <t>EST2SGEN_PRAER</t>
+  </si>
+  <si>
+    <t>Prácticas docentes en la educación remota</t>
+  </si>
+  <si>
+    <t>47,77</t>
+  </si>
+  <si>
+    <t>50,42</t>
+  </si>
+  <si>
+    <t>EST2SGEN_ENTOR</t>
+  </si>
+  <si>
+    <t>Disposición del entorno de aprendizaje</t>
+  </si>
+  <si>
+    <t>52,87</t>
+  </si>
+  <si>
+    <t>Cargas.inicial</t>
+  </si>
+  <si>
+    <t>Cargas.sugerido</t>
+  </si>
+  <si>
+    <t>Docentes de la institución educativa que dirige</t>
+  </si>
+  <si>
+    <t>0,601</t>
+  </si>
+  <si>
+    <t>Padres de familia</t>
+  </si>
+  <si>
+    <t>0,558</t>
+  </si>
+  <si>
+    <t>Autoridades educativas de la UGEL o de la DRE</t>
+  </si>
+  <si>
+    <t>0,781</t>
+  </si>
+  <si>
+    <t>Directores de otras instituciones educativas</t>
+  </si>
+  <si>
+    <t>0,759</t>
+  </si>
+  <si>
+    <t>Organismos no gubernamentales (ONG)</t>
+  </si>
+  <si>
+    <t>0,772</t>
+  </si>
+  <si>
+    <t>Entidades privadas</t>
+  </si>
+  <si>
+    <t>0,743</t>
+  </si>
+  <si>
+    <t>p04_01</t>
+  </si>
+  <si>
+    <t>Estaban listos para ayudarme cuando lo necesitaba (a través de llamadas virtuales, teléfono, correo electrónico, etc.).</t>
+  </si>
+  <si>
+    <t>0,666</t>
+  </si>
+  <si>
+    <t>p04_02</t>
+  </si>
+  <si>
+    <t>Nos hacían preguntas para asegurarse de que estemos entendiendo el tema.</t>
+  </si>
+  <si>
+    <t>0,633</t>
+  </si>
+  <si>
+    <t>p04_03</t>
+  </si>
+  <si>
+    <t>Me dieron consejos sobre cómo mejorar mis aprendizajes.</t>
+  </si>
+  <si>
+    <t>0,697</t>
+  </si>
+  <si>
+    <t>0,708</t>
+  </si>
+  <si>
+    <t>p04_04</t>
+  </si>
+  <si>
+    <t>Se daban cuenta cuando cometíamos un error al responder una pregunta y nos explicaban lo que estaba mal.</t>
+  </si>
+  <si>
+    <t>0,686</t>
+  </si>
+  <si>
+    <t>0,678</t>
+  </si>
+  <si>
+    <t>p04_05</t>
+  </si>
+  <si>
+    <t>Me ayudaron a descargar las tareas de la clase.</t>
+  </si>
+  <si>
+    <t>0,685</t>
+  </si>
+  <si>
+    <t>0,709</t>
+  </si>
+  <si>
+    <t>p04_06</t>
+  </si>
+  <si>
+    <t>Me brindaron oportunidades para mejorar mis tareas.</t>
+  </si>
+  <si>
+    <t>0,748</t>
+  </si>
+  <si>
+    <t>0,766</t>
+  </si>
+  <si>
+    <t>p04_07</t>
+  </si>
+  <si>
+    <t>Me animaban a participar en las clases o a través de chat.</t>
+  </si>
+  <si>
+    <t>0,718</t>
+  </si>
+  <si>
+    <t>0,729</t>
+  </si>
+  <si>
+    <t>Tuve acceso a una computadora, laptop o tablet cuando lo necesité.</t>
+  </si>
+  <si>
+    <t>0,749</t>
+  </si>
+  <si>
+    <t>Tuve acceso a un celular o smartphone cuando lo necesité.</t>
+  </si>
+  <si>
+    <t>0,773</t>
+  </si>
+  <si>
+    <t>Tuve acceso a Internet.</t>
+  </si>
+  <si>
+    <t>0,834</t>
+  </si>
+  <si>
+    <t>Mi conexión a Internet fue lo suficientemente buena para mis actividades escolares.</t>
+  </si>
+  <si>
+    <t>0,802</t>
+  </si>
+  <si>
+    <t>Tuve un lugar tranquilo para estudiar.</t>
+  </si>
+  <si>
+    <t>0,608</t>
+  </si>
+  <si>
+    <t>Tuve tiempo suficiente para hacer mis actividades escolares.</t>
+  </si>
+  <si>
+    <t>0,597</t>
+  </si>
+  <si>
+    <t>Tuve los recursos de aprendizaje necesarios en mi casa (libros de texto, cuadernos de trabajo, enciclopedias, etc.).</t>
+  </si>
+  <si>
+    <t>0,691</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1228,6 +1324,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1509,14 +1614,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +1663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1561,32 +1673,32 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.122</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="D2">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="F2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.121</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>1.003</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="I2">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="J2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1596,32 +1708,32 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.122</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="D3">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="E3">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="F3">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.18</v>
+      </c>
+      <c r="H3">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="J3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="K3">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1631,32 +1743,32 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.912</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="D4">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="E4">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="F4">
+        <v>0.109</v>
+      </c>
+      <c r="G4">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>1.004</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="I4">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="J4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K4">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1666,24 +1778,20 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.997</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.993</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="E5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="F5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G5">
         <v>0.1</v>
       </c>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1693,24 +1801,20 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.997</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.993</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-    </row>
-    <row r="7">
+      <c r="E6">
+        <v>0.995</v>
+      </c>
+      <c r="F6">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1720,24 +1824,20 @@
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.997</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.993</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-    </row>
-    <row r="8">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="F7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1747,24 +1847,20 @@
       <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.997</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.993</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-    </row>
-    <row r="9">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1.004</v>
+      </c>
+      <c r="F8">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1774,32 +1870,32 @@
       <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.865</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.801</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.871</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.792</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="D9">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="F9">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>0.872</v>
+      </c>
+      <c r="I9">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="J9">
         <v>0.09</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0.109</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1809,24 +1905,20 @@
       <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.986</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-    </row>
-    <row r="11">
+      <c r="D10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F10">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G10">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1836,32 +1928,20 @@
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.976</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.951</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.082</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.151</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.997</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.072</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="D11">
+        <v>0.996</v>
+      </c>
+      <c r="E11">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="F11">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G11">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1871,32 +1951,32 @@
       <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.973</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.955</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.071</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.117</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.008</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="D12">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E12">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="F12">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.111</v>
+      </c>
+      <c r="H12">
+        <v>0.998</v>
+      </c>
+      <c r="I12">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K12">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1906,32 +1986,32 @@
       <c r="C13" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.606</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.208</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.986</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="D13">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="F13">
+        <v>0.121</v>
+      </c>
+      <c r="G13">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="J13">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K13">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1941,32 +2021,32 @@
       <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.606</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.208</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.986</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="D14">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="E14">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F14">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.106</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1976,24 +2056,20 @@
       <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.979</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-    </row>
-    <row r="16">
+      <c r="D15">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="E15">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F15">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G15">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2003,32 +2079,20 @@
       <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.958</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.087</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.027</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="D16">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="F16">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G16">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2038,24 +2102,20 @@
       <c r="C17" t="s">
         <v>44</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
+        <v>0.998</v>
+      </c>
+      <c r="E17">
         <v>0.997</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-    </row>
-    <row r="18">
+      <c r="F17">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G17">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -2065,24 +2125,20 @@
       <c r="C18" t="s">
         <v>47</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.969</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.958</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-    </row>
-    <row r="19">
+      <c r="D18">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E18">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="F18">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G18">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2092,24 +2148,20 @@
       <c r="C19" t="s">
         <v>49</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-    </row>
-    <row r="20">
+      <c r="D19">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="E19">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F19">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G19">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2119,24 +2171,20 @@
       <c r="C20" t="s">
         <v>51</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.998</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.997</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-    </row>
-    <row r="21">
+      <c r="E20">
+        <v>0.995</v>
+      </c>
+      <c r="F20">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G20">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2146,24 +2194,20 @@
       <c r="C21" t="s">
         <v>53</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
+        <v>0.999</v>
+      </c>
+      <c r="E21">
         <v>0.997</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-    </row>
-    <row r="22">
+      <c r="F21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G21">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -2173,24 +2217,20 @@
       <c r="C22" t="s">
         <v>55</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.987</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.984</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.088</v>
-      </c>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-    </row>
-    <row r="23">
+      <c r="D22">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="E22">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F22">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G22">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2200,38 +2240,34 @@
       <c r="C23" t="s">
         <v>57</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>0.998</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>0.997</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
+      <c r="F23">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G23">
+        <v>5.0999999999999997E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2257,7 +2293,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2273,13 +2309,11 @@
       <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.543362793307437</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3">
+      <c r="F2">
+        <v>0.54531363114911802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2295,15 +2329,14 @@
       <c r="E3" t="s">
         <v>66</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.655575767990498</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.593155053362033</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4">
+      <c r="F3">
+        <v>0.65555470615063605</v>
+      </c>
+      <c r="G3">
+        <v>0.593507704002463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2319,15 +2352,14 @@
       <c r="E4" t="s">
         <v>68</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.833404913416441</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.834966777850158</v>
-      </c>
-      <c r="H4"/>
-    </row>
-    <row r="5">
+      <c r="F4">
+        <v>0.83682268017711003</v>
+      </c>
+      <c r="G4">
+        <v>0.83757378386231596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2343,15 +2375,14 @@
       <c r="E5" t="s">
         <v>70</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.822712858088211</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.840037060391732</v>
-      </c>
-      <c r="H5"/>
-    </row>
-    <row r="6">
+      <c r="F5">
+        <v>0.82050018032560401</v>
+      </c>
+      <c r="G5">
+        <v>0.83801707310806905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2367,19 +2398,20 @@
       <c r="E6" t="s">
         <v>72</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.761639444682556</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.771322450036179</v>
-      </c>
-      <c r="H6"/>
-    </row>
-    <row r="7">
+      <c r="F6">
+        <v>0.76302302244941</v>
+      </c>
+      <c r="G6">
+        <v>0.77317615838115805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -2389,15 +2421,20 @@
       <c r="E7" t="s">
         <v>74</v>
       </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-    </row>
-    <row r="8">
+      <c r="F7">
+        <v>0.85199424830010895</v>
+      </c>
+      <c r="G7">
+        <v>0.86721473791872195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -2407,15 +2444,20 @@
       <c r="E8" t="s">
         <v>76</v>
       </c>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9">
+      <c r="F8">
+        <v>0.88294562414198796</v>
+      </c>
+      <c r="G8">
+        <v>0.91000363022212105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -2425,15 +2467,17 @@
       <c r="E9" t="s">
         <v>78</v>
       </c>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-    </row>
-    <row r="10">
+      <c r="F9">
+        <v>0.51135007926607801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -2443,15 +2487,20 @@
       <c r="E10" t="s">
         <v>80</v>
       </c>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-    </row>
-    <row r="11">
+      <c r="F10">
+        <v>0.83872561712162896</v>
+      </c>
+      <c r="G10">
+        <v>0.84372435553379499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -2461,15 +2510,17 @@
       <c r="E11" t="s">
         <v>82</v>
       </c>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-    </row>
-    <row r="12">
+      <c r="F11">
+        <v>0.83308640371225795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -2479,15 +2530,17 @@
       <c r="E12" t="s">
         <v>84</v>
       </c>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-    </row>
-    <row r="13">
+      <c r="F12">
+        <v>0.51518448773273096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -2497,11 +2550,14 @@
       <c r="E13" t="s">
         <v>86</v>
       </c>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-    </row>
-    <row r="14">
+      <c r="F13">
+        <v>0.87787084004410598</v>
+      </c>
+      <c r="G13">
+        <v>0.85736202370527403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2517,15 +2573,14 @@
       <c r="E14" t="s">
         <v>89</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.545410545974822</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.532429571495642</v>
-      </c>
-      <c r="H14"/>
-    </row>
-    <row r="15">
+      <c r="F14">
+        <v>0.542224431627919</v>
+      </c>
+      <c r="G14">
+        <v>0.525164758637645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2541,15 +2596,14 @@
       <c r="E15" t="s">
         <v>92</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.51206990361579</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.507270579749874</v>
-      </c>
-      <c r="H15"/>
-    </row>
-    <row r="16">
+      <c r="F15">
+        <v>0.50787569390233001</v>
+      </c>
+      <c r="G15">
+        <v>0.50273903709607004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -2565,15 +2619,14 @@
       <c r="E16" t="s">
         <v>94</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.847196129019483</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.998814144146093</v>
-      </c>
-      <c r="H16"/>
-    </row>
-    <row r="17">
+      <c r="F16">
+        <v>0.84757621413067996</v>
+      </c>
+      <c r="G16">
+        <v>1.01230697143263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2589,15 +2642,14 @@
       <c r="E17" t="s">
         <v>96</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.595891144147448</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.537055698345489</v>
-      </c>
-      <c r="H17"/>
-    </row>
-    <row r="18">
+      <c r="F17">
+        <v>0.59090316579763702</v>
+      </c>
+      <c r="G17">
+        <v>0.52767819547614203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2613,13 +2665,11 @@
       <c r="E18" t="s">
         <v>98</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.407894838474607</v>
-      </c>
-      <c r="G18"/>
-      <c r="H18"/>
-    </row>
-    <row r="19">
+      <c r="F18">
+        <v>0.41065246392077098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2635,15 +2685,14 @@
       <c r="E19" t="s">
         <v>100</v>
       </c>
-      <c r="F19" t="n">
-        <v>0.540457292048533</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.530458952517093</v>
-      </c>
-      <c r="H19"/>
-    </row>
-    <row r="20">
+      <c r="F19">
+        <v>0.54167317474074095</v>
+      </c>
+      <c r="G19">
+        <v>0.531523924437864</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -2659,15 +2708,14 @@
       <c r="E20" t="s">
         <v>102</v>
       </c>
-      <c r="F20" t="n">
-        <v>0.906843719664793</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.914883222445022</v>
-      </c>
-      <c r="H20"/>
-    </row>
-    <row r="21">
+      <c r="F20">
+        <v>0.90373856089375104</v>
+      </c>
+      <c r="G20">
+        <v>0.91134136107772401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -2683,15 +2731,14 @@
       <c r="E21" t="s">
         <v>104</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.891792570397427</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.887552401758429</v>
-      </c>
-      <c r="H21"/>
-    </row>
-    <row r="22">
+      <c r="F21">
+        <v>0.89548868882902</v>
+      </c>
+      <c r="G21">
+        <v>0.89176781548078599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -2707,15 +2754,14 @@
       <c r="E22" t="s">
         <v>106</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.798731083510556</v>
-      </c>
-      <c r="G22"/>
+      <c r="F22">
+        <v>0.79873108351055599</v>
+      </c>
       <c r="H22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2731,15 +2777,14 @@
       <c r="E23" t="s">
         <v>108</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.79988380819776</v>
-      </c>
-      <c r="G23"/>
+      <c r="F23">
+        <v>0.79988380819775995</v>
+      </c>
       <c r="H23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2755,15 +2800,14 @@
       <c r="E24" t="s">
         <v>110</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.883390398531842</v>
-      </c>
-      <c r="G24"/>
+      <c r="F24">
+        <v>0.88339039853184198</v>
+      </c>
       <c r="H24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2779,15 +2823,14 @@
       <c r="E25" t="s">
         <v>112</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.845638465878563</v>
-      </c>
-      <c r="G25"/>
+      <c r="F25">
+        <v>0.84563846587856295</v>
+      </c>
       <c r="H25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2803,15 +2846,14 @@
       <c r="E26" t="s">
         <v>114</v>
       </c>
-      <c r="F26" t="n">
-        <v>0.748350437865751</v>
-      </c>
-      <c r="G26"/>
+      <c r="F26">
+        <v>0.74835043786575095</v>
+      </c>
       <c r="H26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2827,11 +2869,14 @@
       <c r="E27" t="s">
         <v>116</v>
       </c>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-    </row>
-    <row r="28">
+      <c r="F27">
+        <v>0.83805966446517899</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -2847,11 +2892,14 @@
       <c r="E28" t="s">
         <v>118</v>
       </c>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-    </row>
-    <row r="29">
+      <c r="F28">
+        <v>0.76721080635334304</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -2867,11 +2915,14 @@
       <c r="E29" t="s">
         <v>120</v>
       </c>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-    </row>
-    <row r="30">
+      <c r="F29">
+        <v>0.73482459895745</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2887,11 +2938,14 @@
       <c r="E30" t="s">
         <v>122</v>
       </c>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-    </row>
-    <row r="31">
+      <c r="F30">
+        <v>0.79824767284777798</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -2907,11 +2961,14 @@
       <c r="E31" t="s">
         <v>124</v>
       </c>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-    </row>
-    <row r="32">
+      <c r="F31">
+        <v>0.82907672290280598</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -2927,11 +2984,14 @@
       <c r="E32" t="s">
         <v>126</v>
       </c>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-    </row>
-    <row r="33">
+      <c r="F32">
+        <v>0.80041102535821795</v>
+      </c>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -2947,11 +3007,14 @@
       <c r="E33" t="s">
         <v>128</v>
       </c>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-    </row>
-    <row r="34">
+      <c r="F33">
+        <v>0.70302480148117397</v>
+      </c>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -2967,11 +3030,14 @@
       <c r="E34" t="s">
         <v>130</v>
       </c>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-    </row>
-    <row r="35">
+      <c r="F34">
+        <v>0.83157491386864801</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -2987,11 +3053,14 @@
       <c r="E35" t="s">
         <v>132</v>
       </c>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-    </row>
-    <row r="36">
+      <c r="F35">
+        <v>0.82787109868723696</v>
+      </c>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -3007,11 +3076,14 @@
       <c r="E36" t="s">
         <v>134</v>
       </c>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-    </row>
-    <row r="37">
+      <c r="F36">
+        <v>0.73081230560900201</v>
+      </c>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -3027,11 +3099,14 @@
       <c r="E37" t="s">
         <v>136</v>
       </c>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-    </row>
-    <row r="38">
+      <c r="F37">
+        <v>0.75397128504356403</v>
+      </c>
+      <c r="H37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -3047,11 +3122,14 @@
       <c r="E38" t="s">
         <v>138</v>
       </c>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-    </row>
-    <row r="39">
+      <c r="F38">
+        <v>0.69252412895874105</v>
+      </c>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -3067,11 +3145,14 @@
       <c r="E39" t="s">
         <v>140</v>
       </c>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-    </row>
-    <row r="40">
+      <c r="F39">
+        <v>0.52394368271370995</v>
+      </c>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -3087,11 +3168,14 @@
       <c r="E40" t="s">
         <v>142</v>
       </c>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-    </row>
-    <row r="41">
+      <c r="F40">
+        <v>0.85698124492336702</v>
+      </c>
+      <c r="H40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -3107,11 +3191,14 @@
       <c r="E41" t="s">
         <v>144</v>
       </c>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-    </row>
-    <row r="42">
+      <c r="F41">
+        <v>0.63571551209590704</v>
+      </c>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -3127,11 +3214,14 @@
       <c r="E42" t="s">
         <v>146</v>
       </c>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-    </row>
-    <row r="43">
+      <c r="F42">
+        <v>0.62054967147268403</v>
+      </c>
+      <c r="H42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -3147,11 +3237,14 @@
       <c r="E43" t="s">
         <v>148</v>
       </c>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-    </row>
-    <row r="44">
+      <c r="F43">
+        <v>0.85844109896902898</v>
+      </c>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -3167,11 +3260,14 @@
       <c r="E44" t="s">
         <v>150</v>
       </c>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-    </row>
-    <row r="45">
+      <c r="F44">
+        <v>0.79027298562842296</v>
+      </c>
+      <c r="H44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -3187,15 +3283,14 @@
       <c r="E45" t="s">
         <v>153</v>
       </c>
-      <c r="F45" t="n">
-        <v>0.593344444106054</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.749698564489039</v>
-      </c>
-      <c r="H45"/>
-    </row>
-    <row r="46">
+      <c r="F45">
+        <v>0.60166472921467296</v>
+      </c>
+      <c r="G45">
+        <v>0.76540078627705399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -3211,15 +3306,14 @@
       <c r="E46" t="s">
         <v>155</v>
       </c>
-      <c r="F46" t="n">
-        <v>0.427372183091786</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.414532461210173</v>
-      </c>
-      <c r="H46"/>
-    </row>
-    <row r="47">
+      <c r="F46">
+        <v>0.42668442164901499</v>
+      </c>
+      <c r="G46">
+        <v>0.41493413271598301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -3235,13 +3329,11 @@
       <c r="E47" t="s">
         <v>157</v>
       </c>
-      <c r="F47" t="n">
-        <v>0.401633729011947</v>
-      </c>
-      <c r="G47"/>
-      <c r="H47"/>
-    </row>
-    <row r="48">
+      <c r="F47">
+        <v>0.422965451365647</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -3257,15 +3349,14 @@
       <c r="E48" t="s">
         <v>159</v>
       </c>
-      <c r="F48" t="n">
-        <v>0.639465364779957</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.618356675762375</v>
-      </c>
-      <c r="H48"/>
-    </row>
-    <row r="49">
+      <c r="F48">
+        <v>0.64225708339726395</v>
+      </c>
+      <c r="G48">
+        <v>0.622184186674135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -3281,15 +3372,14 @@
       <c r="E49" t="s">
         <v>161</v>
       </c>
-      <c r="F49" t="n">
-        <v>0.746218415481251</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.54174684345048</v>
-      </c>
-      <c r="H49"/>
-    </row>
-    <row r="50">
+      <c r="F49">
+        <v>0.74252152338781996</v>
+      </c>
+      <c r="G49">
+        <v>0.53391585743502101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -3305,15 +3395,14 @@
       <c r="E50" t="s">
         <v>163</v>
       </c>
-      <c r="F50" t="n">
-        <v>0.76043050599582</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.791879396735162</v>
-      </c>
-      <c r="H50"/>
-    </row>
-    <row r="51">
+      <c r="F50">
+        <v>0.75168799836228295</v>
+      </c>
+      <c r="G50">
+        <v>0.78122819281726197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -3329,15 +3418,14 @@
       <c r="E51" t="s">
         <v>165</v>
       </c>
-      <c r="F51" t="n">
-        <v>0.335329833874607</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.33942872408643</v>
-      </c>
-      <c r="H51"/>
-    </row>
-    <row r="52">
+      <c r="F51">
+        <v>0.33643834080743001</v>
+      </c>
+      <c r="G51">
+        <v>0.34067909371115501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -3353,15 +3441,14 @@
       <c r="E52" t="s">
         <v>167</v>
       </c>
-      <c r="F52" t="n">
-        <v>0.436996428594036</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.507226422100432</v>
-      </c>
-      <c r="H52"/>
-    </row>
-    <row r="53">
+      <c r="F52">
+        <v>0.44007551737661998</v>
+      </c>
+      <c r="G52">
+        <v>0.50620789689251899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -3377,15 +3464,14 @@
       <c r="E53" t="s">
         <v>169</v>
       </c>
-      <c r="F53" t="n">
-        <v>0.625023322328074</v>
-      </c>
-      <c r="G53"/>
+      <c r="F53">
+        <v>0.64600442597964103</v>
+      </c>
       <c r="H53" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -3401,15 +3487,14 @@
       <c r="E54" t="s">
         <v>171</v>
       </c>
-      <c r="F54" t="n">
-        <v>0.678841988277182</v>
-      </c>
-      <c r="G54"/>
+      <c r="F54">
+        <v>0.64319344513823196</v>
+      </c>
       <c r="H54" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -3425,15 +3510,14 @@
       <c r="E55" t="s">
         <v>173</v>
       </c>
-      <c r="F55" t="n">
-        <v>0.706289165711928</v>
-      </c>
-      <c r="G55"/>
+      <c r="F55">
+        <v>0.71135550246239498</v>
+      </c>
       <c r="H55" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -3449,15 +3533,14 @@
       <c r="E56" t="s">
         <v>174</v>
       </c>
-      <c r="F56" t="n">
-        <v>0.620384146742315</v>
-      </c>
-      <c r="G56"/>
+      <c r="F56">
+        <v>0.61487691943969203</v>
+      </c>
       <c r="H56" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -3473,15 +3556,14 @@
       <c r="E57" t="s">
         <v>175</v>
       </c>
-      <c r="F57" t="n">
-        <v>0.603250052992983</v>
-      </c>
-      <c r="G57"/>
+      <c r="F57">
+        <v>0.60331340324739302</v>
+      </c>
       <c r="H57" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -3497,15 +3579,14 @@
       <c r="E58" t="s">
         <v>176</v>
       </c>
-      <c r="F58" t="n">
-        <v>0.797783789470968</v>
-      </c>
-      <c r="G58"/>
+      <c r="F58">
+        <v>0.78958501269279302</v>
+      </c>
       <c r="H58" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -3521,15 +3602,14 @@
       <c r="E59" t="s">
         <v>178</v>
       </c>
-      <c r="F59" t="n">
-        <v>0.741399523732954</v>
-      </c>
-      <c r="G59"/>
+      <c r="F59">
+        <v>0.74484440676590902</v>
+      </c>
       <c r="H59" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -3545,15 +3625,14 @@
       <c r="E60" t="s">
         <v>180</v>
       </c>
-      <c r="F60" t="n">
-        <v>0.787760942226573</v>
-      </c>
-      <c r="G60"/>
+      <c r="F60">
+        <v>0.79304230584601398</v>
+      </c>
       <c r="H60" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -3569,15 +3648,14 @@
       <c r="E61" t="s">
         <v>182</v>
       </c>
-      <c r="F61" t="n">
-        <v>0.848274318493264</v>
-      </c>
-      <c r="G61"/>
+      <c r="F61">
+        <v>0.85128759445817304</v>
+      </c>
       <c r="H61" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -3593,15 +3671,14 @@
       <c r="E62" t="s">
         <v>184</v>
       </c>
-      <c r="F62" t="n">
-        <v>0.624512264502113</v>
-      </c>
-      <c r="G62"/>
+      <c r="F62">
+        <v>0.62692663015939698</v>
+      </c>
       <c r="H62" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -3617,15 +3694,14 @@
       <c r="E63" t="s">
         <v>186</v>
       </c>
-      <c r="F63" t="n">
-        <v>0.663751256716165</v>
-      </c>
-      <c r="G63"/>
+      <c r="F63">
+        <v>0.66571498776251703</v>
+      </c>
       <c r="H63" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -3641,15 +3717,14 @@
       <c r="E64" t="s">
         <v>130</v>
       </c>
-      <c r="F64" t="n">
-        <v>0.7393731061785</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.789878343990254</v>
-      </c>
-      <c r="H64"/>
-    </row>
-    <row r="65">
+      <c r="F64">
+        <v>0.75946625966477199</v>
+      </c>
+      <c r="H64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>31</v>
       </c>
@@ -3665,15 +3740,14 @@
       <c r="E65" t="s">
         <v>132</v>
       </c>
-      <c r="F65" t="n">
-        <v>0.856038911081515</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.903329089804943</v>
-      </c>
-      <c r="H65"/>
-    </row>
-    <row r="66">
+      <c r="F65">
+        <v>0.78258660420683401</v>
+      </c>
+      <c r="H65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -3689,15 +3763,14 @@
       <c r="E66" t="s">
         <v>134</v>
       </c>
-      <c r="F66" t="n">
-        <v>0.735727541955468</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.710788512866245</v>
-      </c>
-      <c r="H66"/>
-    </row>
-    <row r="67">
+      <c r="F66">
+        <v>0.68876427194113099</v>
+      </c>
+      <c r="H66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>31</v>
       </c>
@@ -3713,15 +3786,14 @@
       <c r="E67" t="s">
         <v>191</v>
       </c>
-      <c r="F67" t="n">
-        <v>0.78272563505072</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.65558268870857</v>
-      </c>
-      <c r="H67"/>
-    </row>
-    <row r="68">
+      <c r="F67">
+        <v>0.76615657644009805</v>
+      </c>
+      <c r="H67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -3737,13 +3809,14 @@
       <c r="E68" t="s">
         <v>138</v>
       </c>
-      <c r="F68" t="n">
-        <v>0.656654795069906</v>
-      </c>
-      <c r="G68"/>
-      <c r="H68"/>
-    </row>
-    <row r="69">
+      <c r="F68">
+        <v>0.66785488965320505</v>
+      </c>
+      <c r="H68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -3759,13 +3832,11 @@
       <c r="E69" t="s">
         <v>193</v>
       </c>
-      <c r="F69" t="n">
-        <v>0.657685117263351</v>
-      </c>
-      <c r="G69"/>
-      <c r="H69"/>
-    </row>
-    <row r="70">
+      <c r="F69">
+        <v>0.62614877811643899</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -3781,15 +3852,14 @@
       <c r="E70" t="s">
         <v>194</v>
       </c>
-      <c r="F70" t="n">
-        <v>0.733249452358963</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.787225783885552</v>
-      </c>
-      <c r="H70"/>
-    </row>
-    <row r="71">
+      <c r="F70">
+        <v>0.73197323284028704</v>
+      </c>
+      <c r="G70">
+        <v>0.74295920948452099</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>31</v>
       </c>
@@ -3805,15 +3875,14 @@
       <c r="E71" t="s">
         <v>195</v>
       </c>
-      <c r="F71" t="n">
-        <v>0.696443304979045</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.754781197016241</v>
-      </c>
-      <c r="H71"/>
-    </row>
-    <row r="72">
+      <c r="F71">
+        <v>0.74010892020598795</v>
+      </c>
+      <c r="G71">
+        <v>0.78734528409263205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>31</v>
       </c>
@@ -3829,15 +3898,14 @@
       <c r="E72" t="s">
         <v>196</v>
       </c>
-      <c r="F72" t="n">
-        <v>0.673416565836056</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.577789433190296</v>
-      </c>
-      <c r="H72"/>
-    </row>
-    <row r="73">
+      <c r="F72">
+        <v>0.663150447571765</v>
+      </c>
+      <c r="G72">
+        <v>0.60454396237430896</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>31</v>
       </c>
@@ -3853,13 +3921,11 @@
       <c r="E73" t="s">
         <v>197</v>
       </c>
-      <c r="F73" t="n">
-        <v>0.620144274384532</v>
-      </c>
-      <c r="G73"/>
-      <c r="H73"/>
-    </row>
-    <row r="74">
+      <c r="F73">
+        <v>0.57101282494932204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>31</v>
       </c>
@@ -3875,15 +3941,14 @@
       <c r="E74" t="s">
         <v>198</v>
       </c>
-      <c r="F74" t="n">
-        <v>0.685767341229124</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.61558362677593</v>
-      </c>
-      <c r="H74"/>
-    </row>
-    <row r="75">
+      <c r="F74">
+        <v>0.682957252999564</v>
+      </c>
+      <c r="G74">
+        <v>0.63746466739000396</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>31</v>
       </c>
@@ -3899,15 +3964,14 @@
       <c r="E75" t="s">
         <v>199</v>
       </c>
-      <c r="F75" t="n">
-        <v>0.644586236194085</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.670416576195595</v>
-      </c>
-      <c r="H75"/>
-    </row>
-    <row r="76">
+      <c r="F75">
+        <v>0.60877340674642</v>
+      </c>
+      <c r="G75">
+        <v>0.71967774297576004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -3923,15 +3987,14 @@
       <c r="E76" t="s">
         <v>200</v>
       </c>
-      <c r="F76" t="n">
-        <v>0.440484757828776</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.476580742671797</v>
-      </c>
-      <c r="H76"/>
-    </row>
-    <row r="77">
+      <c r="F76">
+        <v>0.48448397631399298</v>
+      </c>
+      <c r="G76">
+        <v>0.45450808913754998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>31</v>
       </c>
@@ -3947,13 +4010,11 @@
       <c r="E77" t="s">
         <v>201</v>
       </c>
-      <c r="F77" t="n">
-        <v>0.397073617243651</v>
-      </c>
-      <c r="G77"/>
-      <c r="H77"/>
-    </row>
-    <row r="78">
+      <c r="F77">
+        <v>0.37496453247254302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -3969,15 +4030,14 @@
       <c r="E78" t="s">
         <v>202</v>
       </c>
-      <c r="F78" t="n">
-        <v>0.631239442867681</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.736431331781786</v>
-      </c>
-      <c r="H78"/>
-    </row>
-    <row r="79">
+      <c r="F78">
+        <v>0.57891084107456003</v>
+      </c>
+      <c r="G78">
+        <v>0.65818261209957096</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>31</v>
       </c>
@@ -3993,13 +4053,11 @@
       <c r="E79" t="s">
         <v>203</v>
       </c>
-      <c r="F79" t="n">
-        <v>0.317880885571516</v>
-      </c>
-      <c r="G79"/>
-      <c r="H79"/>
-    </row>
-    <row r="80">
+      <c r="F79">
+        <v>0.25206078117187197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -4015,13 +4073,11 @@
       <c r="E80" t="s">
         <v>204</v>
       </c>
-      <c r="F80" t="n">
-        <v>0.310529958098456</v>
-      </c>
-      <c r="G80"/>
-      <c r="H80"/>
-    </row>
-    <row r="81">
+      <c r="F80">
+        <v>0.35875565410162202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>31</v>
       </c>
@@ -4037,15 +4093,14 @@
       <c r="E81" t="s">
         <v>205</v>
       </c>
-      <c r="F81" t="n">
-        <v>0.518707945691993</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.549276169422687</v>
-      </c>
-      <c r="H81"/>
-    </row>
-    <row r="82">
+      <c r="F81">
+        <v>0.45397162596910401</v>
+      </c>
+      <c r="G81">
+        <v>0.44814064656387098</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>31</v>
       </c>
@@ -4061,17 +4116,17 @@
       <c r="E82" t="s">
         <v>207</v>
       </c>
-      <c r="F82" t="n">
-        <v>0.0784557797759042</v>
-      </c>
-      <c r="G82"/>
-      <c r="H82"/>
-    </row>
-    <row r="83">
+      <c r="F82">
+        <v>0.111827742595817</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>31</v>
       </c>
-      <c r="B83"/>
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
       <c r="C83" t="s">
         <v>37</v>
       </c>
@@ -4081,15 +4136,17 @@
       <c r="E83" t="s">
         <v>209</v>
       </c>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-    </row>
-    <row r="84">
+      <c r="F83">
+        <v>0.65808952564885903</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>31</v>
       </c>
-      <c r="B84"/>
+      <c r="B84" t="s">
+        <v>36</v>
+      </c>
       <c r="C84" t="s">
         <v>37</v>
       </c>
@@ -4099,15 +4156,17 @@
       <c r="E84" t="s">
         <v>211</v>
       </c>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-    </row>
-    <row r="85">
+      <c r="F84">
+        <v>0.69628949623619096</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>31</v>
       </c>
-      <c r="B85"/>
+      <c r="B85" t="s">
+        <v>36</v>
+      </c>
       <c r="C85" t="s">
         <v>37</v>
       </c>
@@ -4117,15 +4176,17 @@
       <c r="E85" t="s">
         <v>213</v>
       </c>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-    </row>
-    <row r="86">
+      <c r="F85">
+        <v>0.72630929389945698</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>31</v>
       </c>
-      <c r="B86"/>
+      <c r="B86" t="s">
+        <v>36</v>
+      </c>
       <c r="C86" t="s">
         <v>37</v>
       </c>
@@ -4135,15 +4196,17 @@
       <c r="E86" t="s">
         <v>215</v>
       </c>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-    </row>
-    <row r="87">
+      <c r="F86">
+        <v>0.68311563867765002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>31</v>
       </c>
-      <c r="B87"/>
+      <c r="B87" t="s">
+        <v>36</v>
+      </c>
       <c r="C87" t="s">
         <v>37</v>
       </c>
@@ -4153,15 +4216,17 @@
       <c r="E87" t="s">
         <v>217</v>
       </c>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-    </row>
-    <row r="88">
+      <c r="F87">
+        <v>0.76513705058162595</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>31</v>
       </c>
-      <c r="B88"/>
+      <c r="B88" t="s">
+        <v>36</v>
+      </c>
       <c r="C88" t="s">
         <v>37</v>
       </c>
@@ -4171,15 +4236,20 @@
       <c r="E88" t="s">
         <v>219</v>
       </c>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-    </row>
-    <row r="89">
+      <c r="F88">
+        <v>0.82703738845828401</v>
+      </c>
+      <c r="G88">
+        <v>0.86362233725406701</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>31</v>
       </c>
-      <c r="B89"/>
+      <c r="B89" t="s">
+        <v>36</v>
+      </c>
       <c r="C89" t="s">
         <v>37</v>
       </c>
@@ -4189,15 +4259,20 @@
       <c r="E89" t="s">
         <v>221</v>
       </c>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-    </row>
-    <row r="90">
+      <c r="F89">
+        <v>0.82545942234999303</v>
+      </c>
+      <c r="G89">
+        <v>0.88168865077694103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>31</v>
       </c>
-      <c r="B90"/>
+      <c r="B90" t="s">
+        <v>36</v>
+      </c>
       <c r="C90" t="s">
         <v>37</v>
       </c>
@@ -4207,15 +4282,20 @@
       <c r="E90" t="s">
         <v>223</v>
       </c>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-    </row>
-    <row r="91">
+      <c r="F90">
+        <v>0.78898831514569101</v>
+      </c>
+      <c r="G90">
+        <v>0.80421971644619805</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>31</v>
       </c>
-      <c r="B91"/>
+      <c r="B91" t="s">
+        <v>36</v>
+      </c>
       <c r="C91" t="s">
         <v>37</v>
       </c>
@@ -4225,15 +4305,17 @@
       <c r="E91" t="s">
         <v>225</v>
       </c>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-    </row>
-    <row r="92">
+      <c r="F91">
+        <v>0.74916866185931796</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>31</v>
       </c>
-      <c r="B92"/>
+      <c r="B92" t="s">
+        <v>36</v>
+      </c>
       <c r="C92" t="s">
         <v>37</v>
       </c>
@@ -4243,15 +4325,17 @@
       <c r="E92" t="s">
         <v>227</v>
       </c>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-    </row>
-    <row r="93">
+      <c r="F92">
+        <v>0.69850202807131001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>31</v>
       </c>
-      <c r="B93"/>
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
       <c r="C93" t="s">
         <v>37</v>
       </c>
@@ -4261,15 +4345,17 @@
       <c r="E93" t="s">
         <v>229</v>
       </c>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-    </row>
-    <row r="94">
+      <c r="F93">
+        <v>0.71864865569836001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>31</v>
       </c>
-      <c r="B94"/>
+      <c r="B94" t="s">
+        <v>36</v>
+      </c>
       <c r="C94" t="s">
         <v>37</v>
       </c>
@@ -4279,11 +4365,14 @@
       <c r="E94" t="s">
         <v>231</v>
       </c>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-    </row>
-    <row r="95">
+      <c r="F94">
+        <v>0.77966290570756502</v>
+      </c>
+      <c r="G94">
+        <v>0.74877480919200001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>31</v>
       </c>
@@ -4299,15 +4388,14 @@
       <c r="E95" t="s">
         <v>232</v>
       </c>
-      <c r="F95" t="n">
-        <v>0.659565953527023</v>
-      </c>
-      <c r="G95"/>
+      <c r="F95">
+        <v>0.638963324209743</v>
+      </c>
       <c r="H95" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>31</v>
       </c>
@@ -4323,15 +4411,14 @@
       <c r="E96" t="s">
         <v>233</v>
       </c>
-      <c r="F96" t="n">
-        <v>0.686089916983254</v>
-      </c>
-      <c r="G96"/>
+      <c r="F96">
+        <v>0.70073740795698802</v>
+      </c>
       <c r="H96" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>31</v>
       </c>
@@ -4347,15 +4434,14 @@
       <c r="E97" t="s">
         <v>234</v>
       </c>
-      <c r="F97" t="n">
-        <v>0.745954310719343</v>
-      </c>
-      <c r="G97"/>
+      <c r="F97">
+        <v>0.81963062771059103</v>
+      </c>
       <c r="H97" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -4371,15 +4457,14 @@
       <c r="E98" t="s">
         <v>235</v>
       </c>
-      <c r="F98" t="n">
-        <v>0.811338748261489</v>
-      </c>
-      <c r="G98"/>
+      <c r="F98">
+        <v>0.81885103443202301</v>
+      </c>
       <c r="H98" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>31</v>
       </c>
@@ -4395,15 +4480,14 @@
       <c r="E99" t="s">
         <v>236</v>
       </c>
-      <c r="F99" t="n">
-        <v>0.809744299921751</v>
-      </c>
-      <c r="G99"/>
+      <c r="F99">
+        <v>0.835674047420227</v>
+      </c>
       <c r="H99" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>31</v>
       </c>
@@ -4419,15 +4503,14 @@
       <c r="E100" t="s">
         <v>237</v>
       </c>
-      <c r="F100" t="n">
-        <v>0.865086310600159</v>
-      </c>
-      <c r="G100"/>
+      <c r="F100">
+        <v>0.87682324910807696</v>
+      </c>
       <c r="H100" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>31</v>
       </c>
@@ -4443,15 +4526,14 @@
       <c r="E101" t="s">
         <v>238</v>
       </c>
-      <c r="F101" t="n">
-        <v>0.750825399678107</v>
-      </c>
-      <c r="G101"/>
+      <c r="F101">
+        <v>0.84388415909108705</v>
+      </c>
       <c r="H101" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>31</v>
       </c>
@@ -4467,15 +4549,14 @@
       <c r="E102" t="s">
         <v>239</v>
       </c>
-      <c r="F102" t="n">
-        <v>0.452605980334882</v>
-      </c>
-      <c r="G102"/>
+      <c r="F102">
+        <v>0.47372354484642398</v>
+      </c>
       <c r="H102" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>31</v>
       </c>
@@ -4491,15 +4572,14 @@
       <c r="E103" t="s">
         <v>241</v>
       </c>
-      <c r="F103" t="n">
-        <v>0.554034700801258</v>
-      </c>
-      <c r="G103"/>
+      <c r="F103">
+        <v>0.63212461554592903</v>
+      </c>
       <c r="H103" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>31</v>
       </c>
@@ -4515,15 +4595,14 @@
       <c r="E104" t="s">
         <v>243</v>
       </c>
-      <c r="F104" t="n">
-        <v>0.573174545666156</v>
-      </c>
-      <c r="G104"/>
+      <c r="F104">
+        <v>0.60539927145900896</v>
+      </c>
       <c r="H104" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>31</v>
       </c>
@@ -4539,15 +4618,14 @@
       <c r="E105" t="s">
         <v>245</v>
       </c>
-      <c r="F105" t="n">
-        <v>0.765902157854518</v>
-      </c>
-      <c r="G105"/>
+      <c r="F105">
+        <v>0.75143976133551205</v>
+      </c>
       <c r="H105" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -4563,15 +4641,14 @@
       <c r="E106" t="s">
         <v>247</v>
       </c>
-      <c r="F106" t="n">
-        <v>0.79387041136145</v>
-      </c>
-      <c r="G106"/>
+      <c r="F106">
+        <v>0.77730583478089499</v>
+      </c>
       <c r="H106" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>31</v>
       </c>
@@ -4587,15 +4664,14 @@
       <c r="E107" t="s">
         <v>249</v>
       </c>
-      <c r="F107" t="n">
-        <v>0.553224286484267</v>
-      </c>
-      <c r="G107"/>
+      <c r="F107">
+        <v>0.64105006943359</v>
+      </c>
       <c r="H107" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>31</v>
       </c>
@@ -4611,15 +4687,14 @@
       <c r="E108" t="s">
         <v>251</v>
       </c>
-      <c r="F108" t="n">
-        <v>0.784530397934115</v>
-      </c>
-      <c r="G108"/>
+      <c r="F108">
+        <v>0.75831505850150105</v>
+      </c>
       <c r="H108" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>31</v>
       </c>
@@ -4635,13 +4710,14 @@
       <c r="E109" t="s">
         <v>252</v>
       </c>
-      <c r="F109" t="n">
-        <v>0.661007081282848</v>
-      </c>
-      <c r="G109"/>
-      <c r="H109"/>
-    </row>
-    <row r="110">
+      <c r="F109">
+        <v>0.67512600718111304</v>
+      </c>
+      <c r="H109" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -4657,15 +4733,14 @@
       <c r="E110" t="s">
         <v>253</v>
       </c>
-      <c r="F110" t="n">
-        <v>0.79265945015369</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.836833121256007</v>
-      </c>
-      <c r="H110"/>
-    </row>
-    <row r="111">
+      <c r="F110">
+        <v>0.77651459364931497</v>
+      </c>
+      <c r="H110" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>31</v>
       </c>
@@ -4681,15 +4756,14 @@
       <c r="E111" t="s">
         <v>254</v>
       </c>
-      <c r="F111" t="n">
-        <v>0.77904256870332</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.908994213527441</v>
-      </c>
-      <c r="H111"/>
-    </row>
-    <row r="112">
+      <c r="F111">
+        <v>0.77544211557414999</v>
+      </c>
+      <c r="H111" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>31</v>
       </c>
@@ -4705,15 +4779,14 @@
       <c r="E112" t="s">
         <v>255</v>
       </c>
-      <c r="F112" t="n">
-        <v>0.748867014461357</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.763707399555409</v>
-      </c>
-      <c r="H112"/>
-    </row>
-    <row r="113">
+      <c r="F112">
+        <v>0.73842247557950103</v>
+      </c>
+      <c r="H112" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>31</v>
       </c>
@@ -4729,13 +4802,14 @@
       <c r="E113" t="s">
         <v>256</v>
       </c>
-      <c r="F113" t="n">
-        <v>0.594532601061956</v>
-      </c>
-      <c r="G113"/>
-      <c r="H113"/>
-    </row>
-    <row r="114">
+      <c r="F113">
+        <v>0.73631789742758502</v>
+      </c>
+      <c r="H113" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>31</v>
       </c>
@@ -4751,13 +4825,14 @@
       <c r="E114" t="s">
         <v>258</v>
       </c>
-      <c r="F114" t="n">
-        <v>0.687398314358876</v>
-      </c>
-      <c r="G114"/>
-      <c r="H114"/>
-    </row>
-    <row r="115">
+      <c r="F114">
+        <v>0.72949067973807202</v>
+      </c>
+      <c r="H114" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>31</v>
       </c>
@@ -4773,13 +4848,14 @@
       <c r="E115" t="s">
         <v>260</v>
       </c>
-      <c r="F115" t="n">
-        <v>0.702480222416647</v>
-      </c>
-      <c r="G115"/>
-      <c r="H115"/>
-    </row>
-    <row r="116">
+      <c r="F115">
+        <v>0.71961016253823396</v>
+      </c>
+      <c r="H115" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>31</v>
       </c>
@@ -4795,13 +4871,14 @@
       <c r="E116" t="s">
         <v>262</v>
       </c>
-      <c r="F116" t="n">
-        <v>0.651621267207423</v>
-      </c>
-      <c r="G116"/>
-      <c r="H116"/>
-    </row>
-    <row r="117">
+      <c r="F116">
+        <v>0.74225634027868004</v>
+      </c>
+      <c r="H116" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>31</v>
       </c>
@@ -4817,15 +4894,14 @@
       <c r="E117" t="s">
         <v>264</v>
       </c>
-      <c r="F117" t="n">
-        <v>0.742704728538742</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.622680874504286</v>
-      </c>
-      <c r="H117"/>
-    </row>
-    <row r="118">
+      <c r="F117">
+        <v>0.74994036955674104</v>
+      </c>
+      <c r="H117" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>42</v>
       </c>
@@ -4841,15 +4917,14 @@
       <c r="E118" t="s">
         <v>265</v>
       </c>
-      <c r="F118" t="n">
-        <v>0.4544444857101</v>
-      </c>
-      <c r="G118"/>
+      <c r="F118">
+        <v>0.50348097565536098</v>
+      </c>
       <c r="H118" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>42</v>
       </c>
@@ -4865,15 +4940,14 @@
       <c r="E119" t="s">
         <v>266</v>
       </c>
-      <c r="F119" t="n">
-        <v>0.777205860899977</v>
-      </c>
-      <c r="G119"/>
+      <c r="F119">
+        <v>0.75576031657082099</v>
+      </c>
       <c r="H119" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>42</v>
       </c>
@@ -4889,15 +4963,14 @@
       <c r="E120" t="s">
         <v>267</v>
       </c>
-      <c r="F120" t="n">
-        <v>0.594004484728153</v>
-      </c>
-      <c r="G120"/>
+      <c r="F120">
+        <v>0.61039121804222496</v>
+      </c>
       <c r="H120" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>42</v>
       </c>
@@ -4913,15 +4986,14 @@
       <c r="E121" t="s">
         <v>268</v>
       </c>
-      <c r="F121" t="n">
-        <v>0.8451254579465</v>
-      </c>
-      <c r="G121"/>
+      <c r="F121">
+        <v>0.80981237404577699</v>
+      </c>
       <c r="H121" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>42</v>
       </c>
@@ -4937,15 +5009,14 @@
       <c r="E122" t="s">
         <v>269</v>
       </c>
-      <c r="F122" t="n">
-        <v>0.85444678304479</v>
-      </c>
-      <c r="G122"/>
+      <c r="F122">
+        <v>0.84328583293145298</v>
+      </c>
       <c r="H122" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>45</v>
       </c>
@@ -4961,15 +5032,14 @@
       <c r="E123" t="s">
         <v>270</v>
       </c>
-      <c r="F123" t="n">
-        <v>0.649525666376511</v>
-      </c>
-      <c r="G123"/>
+      <c r="F123">
+        <v>0.646437178268781</v>
+      </c>
       <c r="H123" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>45</v>
       </c>
@@ -4985,15 +5055,14 @@
       <c r="E124" t="s">
         <v>271</v>
       </c>
-      <c r="F124" t="n">
-        <v>0.649003781410312</v>
-      </c>
-      <c r="G124"/>
+      <c r="F124">
+        <v>0.63082739555487599</v>
+      </c>
       <c r="H124" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>45</v>
       </c>
@@ -5009,15 +5078,14 @@
       <c r="E125" t="s">
         <v>272</v>
       </c>
-      <c r="F125" t="n">
-        <v>0.400065167108555</v>
-      </c>
-      <c r="G125"/>
+      <c r="F125">
+        <v>0.43241872892072403</v>
+      </c>
       <c r="H125" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>45</v>
       </c>
@@ -5033,15 +5101,14 @@
       <c r="E126" t="s">
         <v>273</v>
       </c>
-      <c r="F126" t="n">
-        <v>0.560238568307914</v>
-      </c>
-      <c r="G126"/>
+      <c r="F126">
+        <v>0.57794453119379396</v>
+      </c>
       <c r="H126" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>45</v>
       </c>
@@ -5057,15 +5124,14 @@
       <c r="E127" t="s">
         <v>274</v>
       </c>
-      <c r="F127" t="n">
-        <v>0.603236811343177</v>
-      </c>
-      <c r="G127"/>
+      <c r="F127">
+        <v>0.59867792913562601</v>
+      </c>
       <c r="H127" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>45</v>
       </c>
@@ -5081,15 +5147,14 @@
       <c r="E128" t="s">
         <v>276</v>
       </c>
-      <c r="F128" t="n">
-        <v>0.717892248339915</v>
-      </c>
-      <c r="G128"/>
+      <c r="F128">
+        <v>0.69550136151880304</v>
+      </c>
       <c r="H128" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>45</v>
       </c>
@@ -5105,15 +5170,14 @@
       <c r="E129" t="s">
         <v>278</v>
       </c>
-      <c r="F129" t="n">
-        <v>0.707169023187222</v>
-      </c>
-      <c r="G129"/>
+      <c r="F129">
+        <v>0.68180548460581203</v>
+      </c>
       <c r="H129" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>45</v>
       </c>
@@ -5129,15 +5193,14 @@
       <c r="E130" t="s">
         <v>280</v>
       </c>
-      <c r="F130" t="n">
-        <v>0.59123705780514</v>
-      </c>
-      <c r="G130"/>
+      <c r="F130">
+        <v>0.59396985015728598</v>
+      </c>
       <c r="H130" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>45</v>
       </c>
@@ -5153,15 +5216,14 @@
       <c r="E131" t="s">
         <v>282</v>
       </c>
-      <c r="F131" t="n">
-        <v>0.393208402825889</v>
-      </c>
-      <c r="G131"/>
+      <c r="F131">
+        <v>0.400035076550116</v>
+      </c>
       <c r="H131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>45</v>
       </c>
@@ -5177,15 +5239,14 @@
       <c r="E132" t="s">
         <v>284</v>
       </c>
-      <c r="F132" t="n">
-        <v>0.659524414812274</v>
-      </c>
-      <c r="G132"/>
+      <c r="F132">
+        <v>0.67240650250600997</v>
+      </c>
       <c r="H132" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>45</v>
       </c>
@@ -5201,15 +5262,14 @@
       <c r="E133" t="s">
         <v>286</v>
       </c>
-      <c r="F133" t="n">
-        <v>0.644230208565231</v>
-      </c>
-      <c r="G133"/>
+      <c r="F133">
+        <v>0.64869054458863096</v>
+      </c>
       <c r="H133" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>45</v>
       </c>
@@ -5225,15 +5285,14 @@
       <c r="E134" t="s">
         <v>288</v>
       </c>
-      <c r="F134" t="n">
-        <v>0.675866235820177</v>
-      </c>
-      <c r="G134"/>
+      <c r="F134">
+        <v>0.68929340976457398</v>
+      </c>
       <c r="H134" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>45</v>
       </c>
@@ -5249,15 +5308,14 @@
       <c r="E135" t="s">
         <v>290</v>
       </c>
-      <c r="F135" t="n">
-        <v>0.636866341751929</v>
-      </c>
-      <c r="G135"/>
+      <c r="F135">
+        <v>0.64216076022033897</v>
+      </c>
       <c r="H135" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>45</v>
       </c>
@@ -5273,15 +5331,14 @@
       <c r="E136" t="s">
         <v>292</v>
       </c>
-      <c r="F136" t="n">
-        <v>0.73954755746729</v>
-      </c>
-      <c r="G136"/>
+      <c r="F136">
+        <v>0.70715492905312105</v>
+      </c>
       <c r="H136" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>45</v>
       </c>
@@ -5297,15 +5354,14 @@
       <c r="E137" t="s">
         <v>294</v>
       </c>
-      <c r="F137" t="n">
-        <v>0.719826829830253</v>
-      </c>
-      <c r="G137"/>
+      <c r="F137">
+        <v>0.69299999076404895</v>
+      </c>
       <c r="H137" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>45</v>
       </c>
@@ -5321,15 +5377,14 @@
       <c r="E138" t="s">
         <v>296</v>
       </c>
-      <c r="F138" t="n">
-        <v>0.705859361585753</v>
-      </c>
-      <c r="G138"/>
+      <c r="F138">
+        <v>0.67560323722345395</v>
+      </c>
       <c r="H138" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>45</v>
       </c>
@@ -5345,15 +5400,14 @@
       <c r="E139" t="s">
         <v>298</v>
       </c>
-      <c r="F139" t="n">
-        <v>0.698251423013189</v>
-      </c>
-      <c r="G139"/>
+      <c r="F139">
+        <v>0.69296589274863496</v>
+      </c>
       <c r="H139" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>45</v>
       </c>
@@ -5369,15 +5423,14 @@
       <c r="E140" t="s">
         <v>300</v>
       </c>
-      <c r="F140" t="n">
-        <v>0.798396610756904</v>
-      </c>
-      <c r="G140"/>
+      <c r="F140">
+        <v>0.75856929606471402</v>
+      </c>
       <c r="H140" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>45</v>
       </c>
@@ -5393,15 +5446,14 @@
       <c r="E141" t="s">
         <v>302</v>
       </c>
-      <c r="F141" t="n">
-        <v>0.794636647407312</v>
-      </c>
-      <c r="G141"/>
+      <c r="F141">
+        <v>0.75832453119435295</v>
+      </c>
       <c r="H141" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>45</v>
       </c>
@@ -5417,15 +5469,14 @@
       <c r="E142" t="s">
         <v>304</v>
       </c>
-      <c r="F142" t="n">
-        <v>0.812684072317335</v>
-      </c>
-      <c r="G142"/>
+      <c r="F142">
+        <v>0.79863242252290001</v>
+      </c>
       <c r="H142" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>45</v>
       </c>
@@ -5441,15 +5492,14 @@
       <c r="E143" t="s">
         <v>306</v>
       </c>
-      <c r="F143" t="n">
-        <v>0.735487568486874</v>
-      </c>
-      <c r="G143"/>
+      <c r="F143">
+        <v>0.73171186201174798</v>
+      </c>
       <c r="H143" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>45</v>
       </c>
@@ -5465,15 +5515,14 @@
       <c r="E144" t="s">
         <v>308</v>
       </c>
-      <c r="F144" t="n">
-        <v>0.792053819529653</v>
-      </c>
-      <c r="G144"/>
+      <c r="F144">
+        <v>0.753385821214832</v>
+      </c>
       <c r="H144" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>45</v>
       </c>
@@ -5489,15 +5538,14 @@
       <c r="E145" t="s">
         <v>309</v>
       </c>
-      <c r="F145" t="n">
-        <v>0.36852190600135</v>
-      </c>
-      <c r="G145"/>
+      <c r="F145">
+        <v>0.40442365393642499</v>
+      </c>
       <c r="H145" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>45</v>
       </c>
@@ -5513,15 +5561,14 @@
       <c r="E146" t="s">
         <v>310</v>
       </c>
-      <c r="F146" t="n">
-        <v>0.749373856593205</v>
-      </c>
-      <c r="G146"/>
+      <c r="F146">
+        <v>0.75747510859556999</v>
+      </c>
       <c r="H146" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>45</v>
       </c>
@@ -5537,15 +5584,14 @@
       <c r="E147" t="s">
         <v>311</v>
       </c>
-      <c r="F147" t="n">
-        <v>0.682937369275462</v>
-      </c>
-      <c r="G147"/>
+      <c r="F147">
+        <v>0.68120914718657899</v>
+      </c>
       <c r="H147" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>45</v>
       </c>
@@ -5561,15 +5607,14 @@
       <c r="E148" t="s">
         <v>312</v>
       </c>
-      <c r="F148" t="n">
-        <v>0.824393076064986</v>
-      </c>
-      <c r="G148"/>
+      <c r="F148">
+        <v>0.78452033959337297</v>
+      </c>
       <c r="H148" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>45</v>
       </c>
@@ -5585,15 +5630,14 @@
       <c r="E149" t="s">
         <v>313</v>
       </c>
-      <c r="F149" t="n">
-        <v>0.611655234204341</v>
-      </c>
-      <c r="G149"/>
+      <c r="F149">
+        <v>0.61433700340383302</v>
+      </c>
       <c r="H149" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>45</v>
       </c>
@@ -5609,15 +5653,14 @@
       <c r="E150" t="s">
         <v>315</v>
       </c>
-      <c r="F150" t="n">
-        <v>0.656023983239483</v>
-      </c>
-      <c r="G150"/>
+      <c r="F150">
+        <v>0.68135214209345196</v>
+      </c>
       <c r="H150" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>45</v>
       </c>
@@ -5633,15 +5676,14 @@
       <c r="E151" t="s">
         <v>317</v>
       </c>
-      <c r="F151" t="n">
-        <v>0.735227634114564</v>
-      </c>
-      <c r="G151"/>
+      <c r="F151">
+        <v>0.73638628312057397</v>
+      </c>
       <c r="H151" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>45</v>
       </c>
@@ -5657,15 +5699,14 @@
       <c r="E152" t="s">
         <v>319</v>
       </c>
-      <c r="F152" t="n">
-        <v>0.784397137194395</v>
-      </c>
-      <c r="G152"/>
+      <c r="F152">
+        <v>0.77079899008181796</v>
+      </c>
       <c r="H152" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>45</v>
       </c>
@@ -5681,15 +5722,14 @@
       <c r="E153" t="s">
         <v>321</v>
       </c>
-      <c r="F153" t="n">
-        <v>0.66107905567626</v>
-      </c>
-      <c r="G153"/>
+      <c r="F153">
+        <v>0.69283126010555995</v>
+      </c>
       <c r="H153" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>45</v>
       </c>
@@ -5705,15 +5745,14 @@
       <c r="E154" t="s">
         <v>323</v>
       </c>
-      <c r="F154" t="n">
-        <v>0.743966244081883</v>
-      </c>
-      <c r="G154"/>
+      <c r="F154">
+        <v>0.74242739860976203</v>
+      </c>
       <c r="H154" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>45</v>
       </c>
@@ -5729,15 +5768,14 @@
       <c r="E155" t="s">
         <v>325</v>
       </c>
-      <c r="F155" t="n">
-        <v>0.791523690883544</v>
-      </c>
-      <c r="G155"/>
+      <c r="F155">
+        <v>0.77852810034279696</v>
+      </c>
       <c r="H155" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>45</v>
       </c>
@@ -5753,15 +5791,14 @@
       <c r="E156" t="s">
         <v>327</v>
       </c>
-      <c r="F156" t="n">
-        <v>0.603410526714285</v>
-      </c>
-      <c r="G156"/>
+      <c r="F156">
+        <v>0.60704806833380398</v>
+      </c>
       <c r="H156" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>45</v>
       </c>
@@ -5777,15 +5814,14 @@
       <c r="E157" t="s">
         <v>329</v>
       </c>
-      <c r="F157" t="n">
-        <v>0.749877136949426</v>
-      </c>
-      <c r="G157"/>
+      <c r="F157">
+        <v>0.735096927810578</v>
+      </c>
       <c r="H157" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>45</v>
       </c>
@@ -5801,15 +5837,14 @@
       <c r="E158" t="s">
         <v>331</v>
       </c>
-      <c r="F158" t="n">
-        <v>0.728127840903411</v>
-      </c>
-      <c r="G158"/>
+      <c r="F158">
+        <v>0.71310009264474705</v>
+      </c>
       <c r="H158" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>45</v>
       </c>
@@ -5825,15 +5860,14 @@
       <c r="E159" t="s">
         <v>333</v>
       </c>
-      <c r="F159" t="n">
-        <v>0.794387206647921</v>
-      </c>
-      <c r="G159"/>
+      <c r="F159">
+        <v>0.76639998452864699</v>
+      </c>
       <c r="H159" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>45</v>
       </c>
@@ -5849,15 +5883,14 @@
       <c r="E160" t="s">
         <v>335</v>
       </c>
-      <c r="F160" t="n">
-        <v>0.800168927330668</v>
-      </c>
-      <c r="G160"/>
+      <c r="F160">
+        <v>0.75165369881127198</v>
+      </c>
       <c r="H160" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>45</v>
       </c>
@@ -5873,15 +5906,14 @@
       <c r="E161" t="s">
         <v>337</v>
       </c>
-      <c r="F161" t="n">
-        <v>0.850482827125866</v>
-      </c>
-      <c r="G161"/>
+      <c r="F161">
+        <v>0.79559476643107196</v>
+      </c>
       <c r="H161" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>45</v>
       </c>
@@ -5897,15 +5929,14 @@
       <c r="E162" t="s">
         <v>339</v>
       </c>
-      <c r="F162" t="n">
-        <v>0.849934303190414</v>
-      </c>
-      <c r="G162"/>
+      <c r="F162">
+        <v>0.79798309232703502</v>
+      </c>
       <c r="H162" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>45</v>
       </c>
@@ -5921,15 +5952,14 @@
       <c r="E163" t="s">
         <v>341</v>
       </c>
-      <c r="F163" t="n">
-        <v>0.803607565082147</v>
-      </c>
-      <c r="G163"/>
+      <c r="F163">
+        <v>0.74973465550670304</v>
+      </c>
       <c r="H163" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>45</v>
       </c>
@@ -5945,15 +5975,14 @@
       <c r="E164" t="s">
         <v>343</v>
       </c>
-      <c r="F164" t="n">
-        <v>0.701257001968091</v>
-      </c>
-      <c r="G164"/>
+      <c r="F164">
+        <v>0.65660772232575304</v>
+      </c>
       <c r="H164" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>45</v>
       </c>
@@ -5969,15 +5998,14 @@
       <c r="E165" t="s">
         <v>345</v>
       </c>
-      <c r="F165" t="n">
-        <v>0.736972534184786</v>
-      </c>
-      <c r="G165"/>
+      <c r="F165">
+        <v>0.69888465195452198</v>
+      </c>
       <c r="H165" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>45</v>
       </c>
@@ -5993,15 +6021,14 @@
       <c r="E166" t="s">
         <v>347</v>
       </c>
-      <c r="F166" t="n">
-        <v>0.789245032316199</v>
-      </c>
-      <c r="G166"/>
+      <c r="F166">
+        <v>0.74635397994960295</v>
+      </c>
       <c r="H166" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>45</v>
       </c>
@@ -6017,15 +6044,14 @@
       <c r="E167" t="s">
         <v>349</v>
       </c>
-      <c r="F167" t="n">
-        <v>0.896443527131008</v>
-      </c>
-      <c r="G167"/>
+      <c r="F167">
+        <v>0.85988329312380296</v>
+      </c>
       <c r="H167" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>45</v>
       </c>
@@ -6041,15 +6067,14 @@
       <c r="E168" t="s">
         <v>351</v>
       </c>
-      <c r="F168" t="n">
-        <v>0.718665509997383</v>
-      </c>
-      <c r="G168"/>
+      <c r="F168">
+        <v>0.69944495004912599</v>
+      </c>
       <c r="H168" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>45</v>
       </c>
@@ -6065,29 +6090,28 @@
       <c r="E169" t="s">
         <v>353</v>
       </c>
-      <c r="F169" t="n">
-        <v>0.870934454698837</v>
-      </c>
-      <c r="G169"/>
+      <c r="F169">
+        <v>0.82994291844342305</v>
+      </c>
       <c r="H169" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6104,7 +6128,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -6117,9 +6141,8 @@
       <c r="D2" t="s">
         <v>358</v>
       </c>
-      <c r="E2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -6132,23 +6155,39 @@
       <c r="D3" t="s">
         <v>361</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" t="s">
+        <v>365</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6165,13 +6204,13 @@
         <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -6185,14 +6224,13 @@
         <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G2"/>
-    </row>
-    <row r="3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6206,14 +6244,13 @@
         <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F3" t="s">
-        <v>367</v>
-      </c>
-      <c r="G3"/>
-    </row>
-    <row r="4">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -6227,14 +6264,13 @@
         <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G4"/>
-    </row>
-    <row r="5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -6248,14 +6284,13 @@
         <v>214</v>
       </c>
       <c r="E5" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F5" t="s">
-        <v>371</v>
-      </c>
-      <c r="G5"/>
-    </row>
-    <row r="6">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6269,14 +6304,13 @@
         <v>216</v>
       </c>
       <c r="E6" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F6" t="s">
-        <v>373</v>
-      </c>
-      <c r="G6"/>
-    </row>
-    <row r="7">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -6290,14 +6324,13 @@
         <v>218</v>
       </c>
       <c r="E7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G7"/>
-    </row>
-    <row r="8">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -6308,17 +6341,19 @@
         <v>360</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>380</v>
       </c>
       <c r="E8" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F8" t="s">
-        <v>377</v>
-      </c>
-      <c r="G8"/>
-    </row>
-    <row r="9">
+        <v>382</v>
+      </c>
+      <c r="G8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -6329,17 +6364,16 @@
         <v>360</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>383</v>
       </c>
       <c r="E9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F9" t="s">
-        <v>379</v>
-      </c>
-      <c r="G9"/>
-    </row>
-    <row r="10">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -6350,17 +6384,19 @@
         <v>360</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>386</v>
       </c>
       <c r="E10" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="F10" t="s">
-        <v>381</v>
-      </c>
-      <c r="G10"/>
-    </row>
-    <row r="11">
+        <v>388</v>
+      </c>
+      <c r="G10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -6371,17 +6407,19 @@
         <v>360</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>390</v>
       </c>
       <c r="E11" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="F11" t="s">
-        <v>383</v>
-      </c>
-      <c r="G11"/>
-    </row>
-    <row r="12">
+        <v>392</v>
+      </c>
+      <c r="G11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -6392,17 +6430,19 @@
         <v>360</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>394</v>
       </c>
       <c r="E12" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="F12" t="s">
-        <v>385</v>
-      </c>
-      <c r="G12"/>
-    </row>
-    <row r="13">
+        <v>396</v>
+      </c>
+      <c r="G12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -6413,17 +6453,19 @@
         <v>360</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>398</v>
       </c>
       <c r="E13" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="F13" t="s">
-        <v>387</v>
-      </c>
-      <c r="G13"/>
-    </row>
-    <row r="14">
+        <v>400</v>
+      </c>
+      <c r="G13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -6434,18 +6476,160 @@
         <v>360</v>
       </c>
       <c r="D14" t="s">
+        <v>402</v>
+      </c>
+      <c r="E14" t="s">
+        <v>403</v>
+      </c>
+      <c r="F14" t="s">
+        <v>404</v>
+      </c>
+      <c r="G14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" t="s">
+        <v>364</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
+        <v>406</v>
+      </c>
+      <c r="F15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C16" t="s">
+        <v>364</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" t="s">
+        <v>408</v>
+      </c>
+      <c r="F16" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" t="s">
+        <v>364</v>
+      </c>
+      <c r="D17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" t="s">
+        <v>410</v>
+      </c>
+      <c r="F17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>363</v>
+      </c>
+      <c r="C18" t="s">
+        <v>364</v>
+      </c>
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" t="s">
+        <v>412</v>
+      </c>
+      <c r="F18" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C19" t="s">
+        <v>364</v>
+      </c>
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" t="s">
+        <v>414</v>
+      </c>
+      <c r="F19" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>363</v>
+      </c>
+      <c r="C20" t="s">
+        <v>364</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" t="s">
+        <v>416</v>
+      </c>
+      <c r="F20" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>363</v>
+      </c>
+      <c r="C21" t="s">
+        <v>364</v>
+      </c>
+      <c r="D21" t="s">
         <v>127</v>
       </c>
-      <c r="E14" t="s">
-        <v>388</v>
-      </c>
-      <c r="F14" t="s">
-        <v>389</v>
-      </c>
-      <c r="G14"/>
+      <c r="E21" t="s">
+        <v>418</v>
+      </c>
+      <c r="F21" t="s">
+        <v>419</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>